--- a/SubRES_TMPL/SubRes_COM-DTB.xlsx
+++ b/SubRES_TMPL/SubRes_COM-DTB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93672555-4FE5-4320-9102-438E2468973B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473CA9A-1DFD-4FF2-9177-21355EA2D3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,543 +27,14 @@
     <sheet name="COM_CHP" sheetId="35" r:id="rId12"/>
     <sheet name="Raw_CCHP" sheetId="36" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
-  </externalReferences>
   <definedNames>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="All_TP" localSheetId="6">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_TP" localSheetId="8">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_TP" localSheetId="4">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_TP" localSheetId="1">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_TP" localSheetId="7">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_TP" localSheetId="9">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_TP">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US" localSheetId="6">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US" localSheetId="8">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US" localSheetId="4">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US" localSheetId="1">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US" localSheetId="7">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US" localSheetId="9">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US">#REF!,#REF!,#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption" localSheetId="6">#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption" localSheetId="8">#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption" localSheetId="4">#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption" localSheetId="7">#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption" localSheetId="9">#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption">#REF!</definedName>
-    <definedName name="Beta" localSheetId="6">#REF!</definedName>
-    <definedName name="Beta" localSheetId="8">#REF!</definedName>
-    <definedName name="Beta" localSheetId="4">#REF!</definedName>
-    <definedName name="Beta" localSheetId="7">#REF!</definedName>
-    <definedName name="Beta" localSheetId="9">#REF!</definedName>
-    <definedName name="Beta">#REF!</definedName>
-    <definedName name="body1ea" localSheetId="6">#REF!</definedName>
-    <definedName name="body1ea" localSheetId="8">#REF!</definedName>
-    <definedName name="body1ea" localSheetId="4">#REF!</definedName>
-    <definedName name="body1ea" localSheetId="1">#REF!</definedName>
-    <definedName name="body1ea" localSheetId="7">#REF!</definedName>
-    <definedName name="body1ea" localSheetId="9">#REF!</definedName>
-    <definedName name="body1ea">#REF!</definedName>
-    <definedName name="body1eb" localSheetId="6">#REF!</definedName>
-    <definedName name="body1eb" localSheetId="8">#REF!</definedName>
-    <definedName name="body1eb" localSheetId="4">#REF!</definedName>
-    <definedName name="body1eb" localSheetId="1">#REF!</definedName>
-    <definedName name="body1eb" localSheetId="7">#REF!</definedName>
-    <definedName name="body1eb" localSheetId="9">#REF!</definedName>
-    <definedName name="body1eb">#REF!</definedName>
-    <definedName name="body1fa" localSheetId="6">#REF!</definedName>
-    <definedName name="body1fa" localSheetId="8">#REF!</definedName>
-    <definedName name="body1fa" localSheetId="4">#REF!</definedName>
-    <definedName name="body1fa" localSheetId="1">#REF!</definedName>
-    <definedName name="body1fa" localSheetId="7">#REF!</definedName>
-    <definedName name="body1fa" localSheetId="9">#REF!</definedName>
-    <definedName name="body1fa">#REF!</definedName>
-    <definedName name="body1fb" localSheetId="6">#REF!</definedName>
-    <definedName name="body1fb" localSheetId="8">#REF!</definedName>
-    <definedName name="body1fb" localSheetId="4">#REF!</definedName>
-    <definedName name="body1fb" localSheetId="1">#REF!</definedName>
-    <definedName name="body1fb" localSheetId="7">#REF!</definedName>
-    <definedName name="body1fb" localSheetId="9">#REF!</definedName>
-    <definedName name="body1fb">#REF!</definedName>
-    <definedName name="body1ga" localSheetId="6">#REF!</definedName>
-    <definedName name="body1ga" localSheetId="8">#REF!</definedName>
-    <definedName name="body1ga" localSheetId="4">#REF!</definedName>
-    <definedName name="body1ga" localSheetId="1">#REF!</definedName>
-    <definedName name="body1ga" localSheetId="7">#REF!</definedName>
-    <definedName name="body1ga" localSheetId="9">#REF!</definedName>
-    <definedName name="body1ga">#REF!</definedName>
-    <definedName name="body1gb" localSheetId="6">#REF!</definedName>
-    <definedName name="body1gb" localSheetId="8">#REF!</definedName>
-    <definedName name="body1gb" localSheetId="4">#REF!</definedName>
-    <definedName name="body1gb" localSheetId="1">#REF!</definedName>
-    <definedName name="body1gb" localSheetId="7">#REF!</definedName>
-    <definedName name="body1gb" localSheetId="9">#REF!</definedName>
-    <definedName name="body1gb">#REF!</definedName>
-    <definedName name="body2ea" localSheetId="6">#REF!</definedName>
-    <definedName name="body2ea" localSheetId="8">#REF!</definedName>
-    <definedName name="body2ea" localSheetId="4">#REF!</definedName>
-    <definedName name="body2ea" localSheetId="1">#REF!</definedName>
-    <definedName name="body2ea" localSheetId="7">#REF!</definedName>
-    <definedName name="body2ea" localSheetId="9">#REF!</definedName>
-    <definedName name="body2ea">#REF!</definedName>
-    <definedName name="body2eb" localSheetId="6">#REF!</definedName>
-    <definedName name="body2eb" localSheetId="8">#REF!</definedName>
-    <definedName name="body2eb" localSheetId="4">#REF!</definedName>
-    <definedName name="body2eb" localSheetId="1">#REF!</definedName>
-    <definedName name="body2eb" localSheetId="7">#REF!</definedName>
-    <definedName name="body2eb" localSheetId="9">#REF!</definedName>
-    <definedName name="body2eb">#REF!</definedName>
-    <definedName name="body2f" localSheetId="6">#REF!</definedName>
-    <definedName name="body2f" localSheetId="8">#REF!</definedName>
-    <definedName name="body2f" localSheetId="4">#REF!</definedName>
-    <definedName name="body2f" localSheetId="1">#REF!</definedName>
-    <definedName name="body2f" localSheetId="7">#REF!</definedName>
-    <definedName name="body2f" localSheetId="9">#REF!</definedName>
-    <definedName name="body2f">#REF!</definedName>
-    <definedName name="body2fa" localSheetId="6">#REF!</definedName>
-    <definedName name="body2fa" localSheetId="8">#REF!</definedName>
-    <definedName name="body2fa" localSheetId="4">#REF!</definedName>
-    <definedName name="body2fa" localSheetId="1">#REF!</definedName>
-    <definedName name="body2fa" localSheetId="7">#REF!</definedName>
-    <definedName name="body2fa" localSheetId="9">#REF!</definedName>
-    <definedName name="body2fa">#REF!</definedName>
-    <definedName name="body2fb" localSheetId="6">#REF!</definedName>
-    <definedName name="body2fb" localSheetId="8">#REF!</definedName>
-    <definedName name="body2fb" localSheetId="4">#REF!</definedName>
-    <definedName name="body2fb" localSheetId="1">#REF!</definedName>
-    <definedName name="body2fb" localSheetId="7">#REF!</definedName>
-    <definedName name="body2fb" localSheetId="9">#REF!</definedName>
-    <definedName name="body2fb">#REF!</definedName>
-    <definedName name="body2ga" localSheetId="6">#REF!</definedName>
-    <definedName name="body2ga" localSheetId="8">#REF!</definedName>
-    <definedName name="body2ga" localSheetId="4">#REF!</definedName>
-    <definedName name="body2ga" localSheetId="1">#REF!</definedName>
-    <definedName name="body2ga" localSheetId="7">#REF!</definedName>
-    <definedName name="body2ga" localSheetId="9">#REF!</definedName>
-    <definedName name="body2ga">#REF!</definedName>
-    <definedName name="body2gb" localSheetId="6">#REF!</definedName>
-    <definedName name="body2gb" localSheetId="8">#REF!</definedName>
-    <definedName name="body2gb" localSheetId="4">#REF!</definedName>
-    <definedName name="body2gb" localSheetId="1">#REF!</definedName>
-    <definedName name="body2gb" localSheetId="7">#REF!</definedName>
-    <definedName name="body2gb" localSheetId="9">#REF!</definedName>
-    <definedName name="body2gb">#REF!</definedName>
-    <definedName name="body3ea" localSheetId="6">#REF!</definedName>
-    <definedName name="body3ea" localSheetId="8">#REF!</definedName>
-    <definedName name="body3ea" localSheetId="4">#REF!</definedName>
-    <definedName name="body3ea" localSheetId="1">#REF!</definedName>
-    <definedName name="body3ea" localSheetId="7">#REF!</definedName>
-    <definedName name="body3ea" localSheetId="9">#REF!</definedName>
-    <definedName name="body3ea">#REF!</definedName>
-    <definedName name="body3eb" localSheetId="6">#REF!</definedName>
-    <definedName name="body3eb" localSheetId="8">#REF!</definedName>
-    <definedName name="body3eb" localSheetId="4">#REF!</definedName>
-    <definedName name="body3eb" localSheetId="1">#REF!</definedName>
-    <definedName name="body3eb" localSheetId="7">#REF!</definedName>
-    <definedName name="body3eb" localSheetId="9">#REF!</definedName>
-    <definedName name="body3eb">#REF!</definedName>
-    <definedName name="body3fa" localSheetId="6">#REF!</definedName>
-    <definedName name="body3fa" localSheetId="8">#REF!</definedName>
-    <definedName name="body3fa" localSheetId="4">#REF!</definedName>
-    <definedName name="body3fa" localSheetId="1">#REF!</definedName>
-    <definedName name="body3fa" localSheetId="7">#REF!</definedName>
-    <definedName name="body3fa" localSheetId="9">#REF!</definedName>
-    <definedName name="body3fa">#REF!</definedName>
-    <definedName name="body3fb" localSheetId="6">#REF!</definedName>
-    <definedName name="body3fb" localSheetId="8">#REF!</definedName>
-    <definedName name="body3fb" localSheetId="4">#REF!</definedName>
-    <definedName name="body3fb" localSheetId="1">#REF!</definedName>
-    <definedName name="body3fb" localSheetId="7">#REF!</definedName>
-    <definedName name="body3fb" localSheetId="9">#REF!</definedName>
-    <definedName name="body3fb">#REF!</definedName>
-    <definedName name="body3ga" localSheetId="6">#REF!</definedName>
-    <definedName name="body3ga" localSheetId="8">#REF!</definedName>
-    <definedName name="body3ga" localSheetId="4">#REF!</definedName>
-    <definedName name="body3ga" localSheetId="1">#REF!</definedName>
-    <definedName name="body3ga" localSheetId="7">#REF!</definedName>
-    <definedName name="body3ga" localSheetId="9">#REF!</definedName>
-    <definedName name="body3ga">#REF!</definedName>
-    <definedName name="body3gb" localSheetId="6">#REF!</definedName>
-    <definedName name="body3gb" localSheetId="8">#REF!</definedName>
-    <definedName name="body3gb" localSheetId="4">#REF!</definedName>
-    <definedName name="body3gb" localSheetId="1">#REF!</definedName>
-    <definedName name="body3gb" localSheetId="7">#REF!</definedName>
-    <definedName name="body3gb" localSheetId="9">#REF!</definedName>
-    <definedName name="body3gb">#REF!</definedName>
-    <definedName name="body4ea" localSheetId="6">#REF!</definedName>
-    <definedName name="body4ea" localSheetId="8">#REF!</definedName>
-    <definedName name="body4ea" localSheetId="4">#REF!</definedName>
-    <definedName name="body4ea" localSheetId="1">#REF!</definedName>
-    <definedName name="body4ea" localSheetId="7">#REF!</definedName>
-    <definedName name="body4ea" localSheetId="9">#REF!</definedName>
-    <definedName name="body4ea">#REF!</definedName>
-    <definedName name="body4eb" localSheetId="6">#REF!</definedName>
-    <definedName name="body4eb" localSheetId="8">#REF!</definedName>
-    <definedName name="body4eb" localSheetId="4">#REF!</definedName>
-    <definedName name="body4eb" localSheetId="1">#REF!</definedName>
-    <definedName name="body4eb" localSheetId="7">#REF!</definedName>
-    <definedName name="body4eb" localSheetId="9">#REF!</definedName>
-    <definedName name="body4eb">#REF!</definedName>
-    <definedName name="body4f" localSheetId="6">#REF!</definedName>
-    <definedName name="body4f" localSheetId="8">#REF!</definedName>
-    <definedName name="body4f" localSheetId="4">#REF!</definedName>
-    <definedName name="body4f" localSheetId="1">#REF!</definedName>
-    <definedName name="body4f" localSheetId="7">#REF!</definedName>
-    <definedName name="body4f" localSheetId="9">#REF!</definedName>
-    <definedName name="body4f">#REF!</definedName>
-    <definedName name="body4fa" localSheetId="6">#REF!</definedName>
-    <definedName name="body4fa" localSheetId="8">#REF!</definedName>
-    <definedName name="body4fa" localSheetId="4">#REF!</definedName>
-    <definedName name="body4fa" localSheetId="1">#REF!</definedName>
-    <definedName name="body4fa" localSheetId="7">#REF!</definedName>
-    <definedName name="body4fa" localSheetId="9">#REF!</definedName>
-    <definedName name="body4fa">#REF!</definedName>
-    <definedName name="body4fb" localSheetId="6">#REF!</definedName>
-    <definedName name="body4fb" localSheetId="8">#REF!</definedName>
-    <definedName name="body4fb" localSheetId="4">#REF!</definedName>
-    <definedName name="body4fb" localSheetId="1">#REF!</definedName>
-    <definedName name="body4fb" localSheetId="7">#REF!</definedName>
-    <definedName name="body4fb" localSheetId="9">#REF!</definedName>
-    <definedName name="body4fb">#REF!</definedName>
-    <definedName name="body4ga" localSheetId="6">#REF!</definedName>
-    <definedName name="body4ga" localSheetId="8">#REF!</definedName>
-    <definedName name="body4ga" localSheetId="4">#REF!</definedName>
-    <definedName name="body4ga" localSheetId="1">#REF!</definedName>
-    <definedName name="body4ga" localSheetId="7">#REF!</definedName>
-    <definedName name="body4ga" localSheetId="9">#REF!</definedName>
-    <definedName name="body4ga">#REF!</definedName>
-    <definedName name="body4gb" localSheetId="6">#REF!</definedName>
-    <definedName name="body4gb" localSheetId="8">#REF!</definedName>
-    <definedName name="body4gb" localSheetId="4">#REF!</definedName>
-    <definedName name="body4gb" localSheetId="1">#REF!</definedName>
-    <definedName name="body4gb" localSheetId="7">#REF!</definedName>
-    <definedName name="body4gb" localSheetId="9">#REF!</definedName>
-    <definedName name="body4gb">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="ChosenYear">[1]Cover!$G$117</definedName>
-    <definedName name="Chromium_Content_ppm_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Chromium_Content_ppm_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Chromium_Content_ppm_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Chromium_Content_ppm_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Chromium_Content_ppm_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Chromium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt">#REF!</definedName>
-    <definedName name="countrye" localSheetId="6">#REF!</definedName>
-    <definedName name="countrye" localSheetId="8">#REF!</definedName>
-    <definedName name="countrye" localSheetId="4">#REF!</definedName>
-    <definedName name="countrye" localSheetId="1">#REF!</definedName>
-    <definedName name="countrye" localSheetId="7">#REF!</definedName>
-    <definedName name="countrye" localSheetId="9">#REF!</definedName>
-    <definedName name="countrye">#REF!</definedName>
-    <definedName name="countryf" localSheetId="6">#REF!</definedName>
-    <definedName name="countryf" localSheetId="8">#REF!</definedName>
-    <definedName name="countryf" localSheetId="4">#REF!</definedName>
-    <definedName name="countryf" localSheetId="1">#REF!</definedName>
-    <definedName name="countryf" localSheetId="7">#REF!</definedName>
-    <definedName name="countryf" localSheetId="9">#REF!</definedName>
-    <definedName name="countryf">#REF!</definedName>
-    <definedName name="countryg" localSheetId="6">#REF!</definedName>
-    <definedName name="countryg" localSheetId="8">#REF!</definedName>
-    <definedName name="countryg" localSheetId="4">#REF!</definedName>
-    <definedName name="countryg" localSheetId="1">#REF!</definedName>
-    <definedName name="countryg" localSheetId="7">#REF!</definedName>
-    <definedName name="countryg" localSheetId="9">#REF!</definedName>
-    <definedName name="countryg">#REF!</definedName>
-    <definedName name="CRF_CountryName">[2]Sheet1!$C$4</definedName>
-    <definedName name="data_range" localSheetId="6">'[3]CSO data'!#REF!</definedName>
-    <definedName name="data_range" localSheetId="8">'[3]CSO data'!#REF!</definedName>
-    <definedName name="data_range" localSheetId="4">'[3]CSO data'!#REF!</definedName>
-    <definedName name="data_range" localSheetId="7">'[3]CSO data'!#REF!</definedName>
-    <definedName name="data_range" localSheetId="9">'[3]CSO data'!#REF!</definedName>
-    <definedName name="data_range">'[3]CSO data'!#REF!</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="EnergyService" localSheetId="6">[4]Tertiary!#REF!</definedName>
-    <definedName name="EnergyService" localSheetId="8">[4]Tertiary!#REF!</definedName>
-    <definedName name="EnergyService" localSheetId="4">[4]Tertiary!#REF!</definedName>
-    <definedName name="EnergyService" localSheetId="7">[4]Tertiary!#REF!</definedName>
-    <definedName name="EnergyService" localSheetId="9">[4]Tertiary!#REF!</definedName>
-    <definedName name="EnergyService">[4]Tertiary!#REF!</definedName>
-    <definedName name="Eng">[1]Cover!$G$111</definedName>
-    <definedName name="Etiket" localSheetId="6">#REF!</definedName>
-    <definedName name="Etiket" localSheetId="8">#REF!</definedName>
-    <definedName name="Etiket" localSheetId="4">#REF!</definedName>
-    <definedName name="Etiket" localSheetId="7">#REF!</definedName>
-    <definedName name="Etiket" localSheetId="9">#REF!</definedName>
-    <definedName name="Etiket">#REF!</definedName>
-    <definedName name="Evap_Control_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="Evap_Control_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="Evap_Control_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="Evap_Control_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="Evap_Control_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="Evap_Control_perc">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc">#REF!</definedName>
-    <definedName name="FID_1">[5]AGR_Fuels!$A$2</definedName>
-    <definedName name="Fuel_Injection_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="Fuel_Injection_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="Fuel_Injection_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="Fuel_Injection_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="Fuel_Injection_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="Fuel_Injection_perc">#REF!</definedName>
-    <definedName name="Fuel_Specifications" localSheetId="6">#REF!</definedName>
-    <definedName name="Fuel_Specifications" localSheetId="8">#REF!</definedName>
-    <definedName name="Fuel_Specifications" localSheetId="4">#REF!</definedName>
-    <definedName name="Fuel_Specifications" localSheetId="7">#REF!</definedName>
-    <definedName name="Fuel_Specifications" localSheetId="9">#REF!</definedName>
-    <definedName name="Fuel_Specifications">#REF!</definedName>
-    <definedName name="H_C_Ratio" localSheetId="6">#REF!</definedName>
-    <definedName name="H_C_Ratio" localSheetId="8">#REF!</definedName>
-    <definedName name="H_C_Ratio" localSheetId="4">#REF!</definedName>
-    <definedName name="H_C_Ratio" localSheetId="7">#REF!</definedName>
-    <definedName name="H_C_Ratio" localSheetId="9">#REF!</definedName>
-    <definedName name="H_C_Ratio">#REF!</definedName>
-    <definedName name="H_Share_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="H_Share_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="H_Share_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="H_Share_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="H_Share_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="H_Share_perc">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h" localSheetId="6">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h" localSheetId="8">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h" localSheetId="4">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h" localSheetId="7">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h" localSheetId="9">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs" localSheetId="6">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs" localSheetId="8">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs" localSheetId="4">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs" localSheetId="7">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs" localSheetId="9">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l" localSheetId="6">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l" localSheetId="8">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l" localSheetId="4">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l" localSheetId="7">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l" localSheetId="9">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l">#REF!</definedName>
-    <definedName name="Max_Temperature_oC" localSheetId="6">#REF!</definedName>
-    <definedName name="Max_Temperature_oC" localSheetId="8">#REF!</definedName>
-    <definedName name="Max_Temperature_oC" localSheetId="4">#REF!</definedName>
-    <definedName name="Max_Temperature_oC" localSheetId="7">#REF!</definedName>
-    <definedName name="Max_Temperature_oC" localSheetId="9">#REF!</definedName>
-    <definedName name="Max_Temperature_oC">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km" localSheetId="6">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km" localSheetId="8">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km" localSheetId="4">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km" localSheetId="7">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km" localSheetId="9">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km" localSheetId="6">#REF!</definedName>
-    <definedName name="Mileage_km" localSheetId="8">#REF!</definedName>
-    <definedName name="Mileage_km" localSheetId="4">#REF!</definedName>
-    <definedName name="Mileage_km" localSheetId="7">#REF!</definedName>
-    <definedName name="Mileage_km" localSheetId="9">#REF!</definedName>
-    <definedName name="Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km_per_year" localSheetId="6">#REF!</definedName>
-    <definedName name="Mileage_km_per_year" localSheetId="8">#REF!</definedName>
-    <definedName name="Mileage_km_per_year" localSheetId="4">#REF!</definedName>
-    <definedName name="Mileage_km_per_year" localSheetId="7">#REF!</definedName>
-    <definedName name="Mileage_km_per_year" localSheetId="9">#REF!</definedName>
-    <definedName name="Mileage_km_per_year">#REF!</definedName>
-    <definedName name="Min_Temperature_oC" localSheetId="6">#REF!</definedName>
-    <definedName name="Min_Temperature_oC" localSheetId="8">#REF!</definedName>
-    <definedName name="Min_Temperature_oC" localSheetId="4">#REF!</definedName>
-    <definedName name="Min_Temperature_oC" localSheetId="7">#REF!</definedName>
-    <definedName name="Min_Temperature_oC" localSheetId="9">#REF!</definedName>
-    <definedName name="Min_Temperature_oC">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt">#REF!</definedName>
-    <definedName name="O_C_Ratio" localSheetId="6">#REF!</definedName>
-    <definedName name="O_C_Ratio" localSheetId="8">#REF!</definedName>
-    <definedName name="O_C_Ratio" localSheetId="4">#REF!</definedName>
-    <definedName name="O_C_Ratio" localSheetId="7">#REF!</definedName>
-    <definedName name="O_C_Ratio" localSheetId="9">#REF!</definedName>
-    <definedName name="O_C_Ratio">#REF!</definedName>
-    <definedName name="Population" localSheetId="6">#REF!</definedName>
-    <definedName name="Population" localSheetId="8">#REF!</definedName>
-    <definedName name="Population" localSheetId="4">#REF!</definedName>
-    <definedName name="Population" localSheetId="7">#REF!</definedName>
-    <definedName name="Population" localSheetId="9">#REF!</definedName>
-    <definedName name="Population">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri" localSheetId="6">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri" localSheetId="8">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri" localSheetId="4">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri" localSheetId="7">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri" localSheetId="9">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri">#REF!</definedName>
-    <definedName name="R_Share_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="R_Share_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="R_Share_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="R_Share_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="R_Share_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="R_Share_perc">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h" localSheetId="6">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h" localSheetId="8">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h" localSheetId="4">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h" localSheetId="7">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h" localSheetId="9">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h">#REF!</definedName>
-    <definedName name="RetBE" localSheetId="6">[6]Macro1!#REF!</definedName>
-    <definedName name="RetBE" localSheetId="8">[6]Macro1!#REF!</definedName>
-    <definedName name="RetBE" localSheetId="4">[6]Macro1!#REF!</definedName>
-    <definedName name="RetBE" localSheetId="1">[6]Macro1!#REF!</definedName>
-    <definedName name="RetBE" localSheetId="7">[6]Macro1!#REF!</definedName>
-    <definedName name="RetBE" localSheetId="9">[6]Macro1!#REF!</definedName>
-    <definedName name="RetBE">[6]Macro1!#REF!</definedName>
-    <definedName name="RVP_and_beta" localSheetId="6">#REF!</definedName>
-    <definedName name="RVP_and_beta" localSheetId="8">#REF!</definedName>
-    <definedName name="RVP_and_beta" localSheetId="4">#REF!</definedName>
-    <definedName name="RVP_and_beta" localSheetId="7">#REF!</definedName>
-    <definedName name="RVP_and_beta" localSheetId="9">#REF!</definedName>
-    <definedName name="RVP_and_beta">#REF!</definedName>
-    <definedName name="RVP_kPa">[7]RVP_kPa!$A$1:$B$13</definedName>
-    <definedName name="Selenium_Content_ppm_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Selenium_Content_ppm_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Selenium_Content_ppm_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Selenium_Content_ppm_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Selenium_Content_ppm_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Selenium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt">#REF!</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="Temperatures" localSheetId="6">#REF!</definedName>
-    <definedName name="Temperatures" localSheetId="8">#REF!</definedName>
-    <definedName name="Temperatures" localSheetId="4">#REF!</definedName>
-    <definedName name="Temperatures" localSheetId="7">#REF!</definedName>
-    <definedName name="Temperatures" localSheetId="9">#REF!</definedName>
-    <definedName name="Temperatures">#REF!</definedName>
-    <definedName name="tiket" localSheetId="6">#REF!</definedName>
-    <definedName name="tiket" localSheetId="8">#REF!</definedName>
-    <definedName name="tiket" localSheetId="4">#REF!</definedName>
-    <definedName name="tiket" localSheetId="7">#REF!</definedName>
-    <definedName name="tiket" localSheetId="9">#REF!</definedName>
-    <definedName name="tiket">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES" localSheetId="6">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES" localSheetId="8">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES" localSheetId="4">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES" localSheetId="1">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES" localSheetId="7">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES" localSheetId="9">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES">#REF!</definedName>
-    <definedName name="TP.Petroleum" localSheetId="6">#REF!</definedName>
-    <definedName name="TP.Petroleum" localSheetId="8">#REF!</definedName>
-    <definedName name="TP.Petroleum" localSheetId="4">#REF!</definedName>
-    <definedName name="TP.Petroleum" localSheetId="1">#REF!</definedName>
-    <definedName name="TP.Petroleum" localSheetId="7">#REF!</definedName>
-    <definedName name="TP.Petroleum" localSheetId="9">#REF!</definedName>
-    <definedName name="TP.Petroleum">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases" localSheetId="6">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases" localSheetId="8">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases" localSheetId="4">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases" localSheetId="1">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases" localSheetId="7">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases" localSheetId="9">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases">#REF!</definedName>
-    <definedName name="U_Share_perc" localSheetId="6">#REF!</definedName>
-    <definedName name="U_Share_perc" localSheetId="8">#REF!</definedName>
-    <definedName name="U_Share_perc" localSheetId="4">#REF!</definedName>
-    <definedName name="U_Share_perc" localSheetId="7">#REF!</definedName>
-    <definedName name="U_Share_perc" localSheetId="9">#REF!</definedName>
-    <definedName name="U_Share_perc">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h" localSheetId="6">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h" localSheetId="8">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h" localSheetId="4">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h" localSheetId="7">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h" localSheetId="9">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES" localSheetId="6">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES" localSheetId="8">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES" localSheetId="4">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES" localSheetId="1">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES" localSheetId="7">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES" localSheetId="9">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES">#REF!</definedName>
-    <definedName name="US.Petroleum" localSheetId="6">#REF!</definedName>
-    <definedName name="US.Petroleum" localSheetId="8">#REF!</definedName>
-    <definedName name="US.Petroleum" localSheetId="4">#REF!</definedName>
-    <definedName name="US.Petroleum" localSheetId="1">#REF!</definedName>
-    <definedName name="US.Petroleum" localSheetId="7">#REF!</definedName>
-    <definedName name="US.Petroleum" localSheetId="9">#REF!</definedName>
-    <definedName name="US.Petroleum">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases" localSheetId="6">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases" localSheetId="8">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases" localSheetId="4">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases" localSheetId="1">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases" localSheetId="7">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases" localSheetId="9">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases">#REF!</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="yeare" localSheetId="6">#REF!</definedName>
-    <definedName name="yeare" localSheetId="8">#REF!</definedName>
-    <definedName name="yeare" localSheetId="4">#REF!</definedName>
-    <definedName name="yeare" localSheetId="1">#REF!</definedName>
-    <definedName name="yeare" localSheetId="7">#REF!</definedName>
-    <definedName name="yeare" localSheetId="9">#REF!</definedName>
-    <definedName name="yeare">#REF!</definedName>
-    <definedName name="yearf" localSheetId="6">#REF!</definedName>
-    <definedName name="yearf" localSheetId="8">#REF!</definedName>
-    <definedName name="yearf" localSheetId="4">#REF!</definedName>
-    <definedName name="yearf" localSheetId="1">#REF!</definedName>
-    <definedName name="yearf" localSheetId="7">#REF!</definedName>
-    <definedName name="yearf" localSheetId="9">#REF!</definedName>
-    <definedName name="yearf">#REF!</definedName>
-    <definedName name="yearg" localSheetId="6">#REF!</definedName>
-    <definedName name="yearg" localSheetId="8">#REF!</definedName>
-    <definedName name="yearg" localSheetId="4">#REF!</definedName>
-    <definedName name="yearg" localSheetId="1">#REF!</definedName>
-    <definedName name="yearg" localSheetId="7">#REF!</definedName>
-    <definedName name="yearg" localSheetId="9">#REF!</definedName>
-    <definedName name="yearg">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt" localSheetId="6">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt" localSheetId="8">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt" localSheetId="4">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt" localSheetId="7">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt" localSheetId="9">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -7066,9 +6537,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -7690,7 +7161,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8032,10 +7503,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8052,10 +7523,10 @@
     <xf numFmtId="2" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8085,13 +7556,13 @@
     <xf numFmtId="2" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8103,7 +7574,7 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8163,7 +7634,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8187,7 +7658,7 @@
     <xf numFmtId="1" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8210,7 +7681,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8218,7 +7689,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8403,574 +7874,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Start"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Menu"/>
-      <sheetName val="Table1"/>
-      <sheetName val="Table2"/>
-      <sheetName val="Table3"/>
-      <sheetName val="Table4"/>
-      <sheetName val="Table5"/>
-      <sheetName val="Table6a"/>
-      <sheetName val="Table6b"/>
-      <sheetName val="Table6c"/>
-      <sheetName val="Table6d"/>
-      <sheetName val="Table7a"/>
-      <sheetName val="Table7b"/>
-      <sheetName val="Table8"/>
-      <sheetName val="TableEU-1"/>
-      <sheetName val="TableEU-2"/>
-      <sheetName val="GELE"/>
-      <sheetName val="GHEAT"/>
-      <sheetName val="NELE"/>
-      <sheetName val="NHEAT"/>
-      <sheetName val="ELET34"/>
-      <sheetName val="HEAT34"/>
-      <sheetName val="TAB5ELE"/>
-      <sheetName val="TAB5CHP"/>
-      <sheetName val="TAB5TOT"/>
-      <sheetName val="TAB5HEAT"/>
-      <sheetName val="TAB5CHPH"/>
-      <sheetName val="TAB5TOTH"/>
-      <sheetName val="TAB6ANTONS"/>
-      <sheetName val="TAB6CCTONS"/>
-      <sheetName val="TAB6OBCTONS"/>
-      <sheetName val="TAB6SCTONS"/>
-      <sheetName val="TAB6LIGTONS"/>
-      <sheetName val="TAB6PEATONS"/>
-      <sheetName val="TAB6PFUELTONS"/>
-      <sheetName val="TAB6COKEOCTONS"/>
-      <sheetName val="TAB6GASCOKETONS"/>
-      <sheetName val="TAB6COALTARTONS"/>
-      <sheetName val="TAB6BKBTONS"/>
-      <sheetName val="TAB6GWGASTJ"/>
-      <sheetName val="TAB6COGTJ"/>
-      <sheetName val="TAB6BFGTJ"/>
-      <sheetName val="TAB6OSGASTJ"/>
-      <sheetName val="TAB6CRUDOILTONS"/>
-      <sheetName val="TAB6NGLTONS"/>
-      <sheetName val="TAB6REFGASTONS"/>
-      <sheetName val="TAB6LPGTONS"/>
-      <sheetName val="TAB6NAPHTHATONS"/>
-      <sheetName val="TAB6KERJETONS"/>
-      <sheetName val="TAB6OTHKEROTONS"/>
-      <sheetName val="TAB6GASDIESTONS"/>
-      <sheetName val="TAB6HFUELTONS"/>
-      <sheetName val="TAB6BITUTONS"/>
-      <sheetName val="TAB6PETCOKETONS"/>
-      <sheetName val="TAB6OTHOILTONS"/>
-      <sheetName val="TAB6NGASTJ"/>
-      <sheetName val="TAB6INDWTJ"/>
-      <sheetName val="TAB6MSWRTJ"/>
-      <sheetName val="TAB6MSWNRTJ"/>
-      <sheetName val="TAB6WOODTJ"/>
-      <sheetName val="TAB6LANDGASTJ"/>
-      <sheetName val="TAB6SEWAGETJ"/>
-      <sheetName val="TAB6OTHBIOTJ"/>
-      <sheetName val="TAB6LIQBIOTONS"/>
-      <sheetName val="TAB6TOTAL"/>
-      <sheetName val="TAB7MAIN"/>
-      <sheetName val="TAB7AUTO"/>
-      <sheetName val="TAB8IMPE"/>
-      <sheetName val="TAB8IMPHC"/>
-      <sheetName val="TAB8EXPE"/>
-      <sheetName val="TAB8EXPHC"/>
-      <sheetName val="Remarks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="105">
-          <cell r="D105">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="G111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>2010</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="42">
-          <cell r="AE42" t="str">
-            <v>Menu</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>European Community</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="EB2012"/>
-      <sheetName val="COM_Balance"/>
-      <sheetName val="COM_Commodities"/>
-      <sheetName val="COM_Processes"/>
-      <sheetName val="COM_FuelTechs"/>
-      <sheetName val="COM_EmiCoeffs"/>
-      <sheetName val="COM_CH"/>
-      <sheetName val="COM_CW"/>
-      <sheetName val="COM_CC"/>
-      <sheetName val="COM_CO"/>
-      <sheetName val="COM_PV"/>
-      <sheetName val="Commercial SEAI"/>
-      <sheetName val="Public SEAI"/>
-      <sheetName val="CSO data"/>
-      <sheetName val="Public BOC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7_Buildings managed by municipa"/>
-      <sheetName val="Tertiary"/>
-      <sheetName val="7_Buildings managed by muni (2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Macro1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Population"/>
-      <sheetName val="Mileage_km"/>
-      <sheetName val="Mean_Fleet_Mileage_km"/>
-      <sheetName val="Fuel_Injection_perc"/>
-      <sheetName val="Evap_Control_perc"/>
-      <sheetName val="U_Speed_km_per_h"/>
-      <sheetName val="R_Speed_km_per_h"/>
-      <sheetName val="H_Speed_km_per_h"/>
-      <sheetName val="U_Share_perc"/>
-      <sheetName val="R_Share_perc"/>
-      <sheetName val="H_Share_perc"/>
-      <sheetName val="Evap_U_Share_perc"/>
-      <sheetName val="Evap_R_Share_perc"/>
-      <sheetName val="Evap_H_Share_perc"/>
-      <sheetName val="Min_Temperature_oC"/>
-      <sheetName val="Max_Temperature_oC"/>
-      <sheetName val="Temperatures"/>
-      <sheetName val="RVP_kPa"/>
-      <sheetName val="Beta"/>
-      <sheetName val="Fuel_Specifications"/>
-      <sheetName val="Improved_Fuel_Specs"/>
-      <sheetName val="Annual_Fuel_Consumption"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Month_</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="B2">
-            <v>88.7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="B3">
-            <v>87.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="B4">
-            <v>85.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="B5">
-            <v>72.900000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="B6">
-            <v>62.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="B7">
-            <v>59.6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="B8">
-            <v>59.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>August</v>
-          </cell>
-          <cell r="B9">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>September</v>
-          </cell>
-          <cell r="B10">
-            <v>57.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>October</v>
-          </cell>
-          <cell r="B11">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>November</v>
-          </cell>
-          <cell r="B12">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>December</v>
-          </cell>
-          <cell r="B13">
-            <v>86.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31650,12 +30553,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31805,15 +30705,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31837,10 +30741,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRes_COM-DTB.xlsx
+++ b/SubRES_TMPL/SubRes_COM-DTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473CA9A-1DFD-4FF2-9177-21355EA2D3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D90B6-7A18-4A28-891C-19DEA768C6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -8202,29 +8202,29 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="14.1328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="8.1328125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.1328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="14.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.3984375" style="3" customWidth="1"/>
-    <col min="18" max="31" width="8.86328125" style="3"/>
-    <col min="32" max="32" width="21.3984375" style="3" customWidth="1"/>
-    <col min="33" max="38" width="8.86328125" style="3"/>
-    <col min="39" max="39" width="21.265625" style="3" customWidth="1"/>
-    <col min="40" max="16384" width="8.86328125" style="3"/>
+    <col min="16" max="16" width="11.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="3" customWidth="1"/>
+    <col min="18" max="31" width="8.85546875" style="3"/>
+    <col min="32" max="32" width="21.42578125" style="3" customWidth="1"/>
+    <col min="33" max="38" width="8.85546875" style="3"/>
+    <col min="39" max="39" width="21.28515625" style="3" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8232,7 +8232,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8240,7 +8240,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8248,7 +8248,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8256,7 +8256,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8264,7 +8264,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8272,7 +8272,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8280,7 +8280,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8288,7 +8288,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8296,7 +8296,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8304,7 +8304,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8312,7 +8312,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8320,7 +8320,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8328,7 +8328,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8336,7 +8336,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8344,7 +8344,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8352,7 +8352,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="239" t="s">
         <v>37</v>
       </c>
@@ -8370,7 +8370,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -8378,7 +8378,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8394,7 +8394,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="E22" s="241"/>
       <c r="F22" s="241"/>
     </row>
-    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -8458,7 +8458,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>82</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8478,7 +8478,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8486,7 +8486,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8494,7 +8494,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8502,7 +8502,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8510,7 +8510,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8518,7 +8518,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8526,7 +8526,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8534,7 +8534,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8542,7 +8542,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8550,7 +8550,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8558,7 +8558,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8566,7 +8566,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8574,7 +8574,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8582,7 +8582,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8590,7 +8590,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8598,7 +8598,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8606,7 +8606,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8614,7 +8614,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -8646,16 +8646,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="155" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.265625" style="155" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.1328125" style="155"/>
-    <col min="15" max="15" width="9.1328125" style="155" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="155"/>
+    <col min="1" max="1" width="14.5703125" style="155" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="155"/>
+    <col min="15" max="15" width="9.140625" style="155" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="155" t="s">
         <v>282</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="155" t="s">
         <v>84</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
         <v>88</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
         <v>380</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>[ cooking electric stove</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="155" t="s">
         <v>381</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>[ cooking gas stove</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
         <v>382</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>[ cooking LPG stove</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="165"/>
       <c r="B9" s="165" t="s">
         <v>282</v>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="L9" s="165"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="165"/>
       <c r="B10" s="165" t="s">
         <v>84</v>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="L10" s="165"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="165" t="s">
         <v>88</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="165" t="s">
         <v>387</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>[ Incandescent STAD lighting system</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="165" t="s">
         <v>388</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v xml:space="preserve">[ Incandescent IMP lighting system </v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="165" t="s">
         <v>389</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>[ Halogens lighting system</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="165" t="s">
         <v>390</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>[ Fluorescent lighting system</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="165" t="s">
         <v>391</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>[ Public lighting</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="155" t="s">
         <v>282</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="155" t="s">
         <v>84</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="155" t="s">
         <v>88</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="155" t="s">
         <v>398</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>[ Refrigerators (energy class B,A)</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="155" t="s">
         <v>399</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>[ Refrigerators (A+, A++)</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="155" t="s">
         <v>400</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>[ Freezers (B,A)</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
         <v>401</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>[ Freezers (A+,A++)</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="155" t="s">
         <v>282</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="155" t="s">
         <v>347</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="155" t="s">
         <v>88</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="155" t="s">
         <v>406</v>
       </c>
@@ -9686,22 +9686,22 @@
   </sheetPr>
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AC6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-    <col min="2" max="2" width="54.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1328125" style="1"/>
-    <col min="32" max="32" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>468</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="AK1" s="190"/>
       <c r="AL1" s="190"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>444</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="AK2" s="190"/>
       <c r="AL2" s="190"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="158"/>
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
@@ -9829,7 +9829,7 @@
       <c r="AK3" s="192"/>
       <c r="AL3" s="192"/>
     </row>
-    <row r="4" spans="1:38" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="193" t="s">
         <v>2</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="201" t="s">
         <v>13</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="204" t="s">
         <v>561</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="206">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="K6" s="207">
         <v>1100</v>
@@ -10145,24 +10145,24 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>710</v>
       </c>
@@ -10170,14 +10170,14 @@
       <c r="W1" s="234"/>
       <c r="X1" s="234"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
         <v>709</v>
       </c>
       <c r="B2" s="108"/>
       <c r="W2" s="234"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="158"/>
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
@@ -10217,7 +10217,7 @@
       <c r="AG3" s="192"/>
       <c r="AH3" s="192"/>
     </row>
-    <row r="4" spans="1:37" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="193" t="s">
         <v>2</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="201" t="s">
         <v>13</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="135" t="str">
         <f t="shared" ref="A6:A20" si="0">AB6</f>
         <v>COMCHPH2G_01_SOFC</v>
@@ -10518,7 +10518,7 @@
         <v>CHP: Fuel Cell SOFC.HH2.COM</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPBGS_01</v>
@@ -10541,7 +10541,7 @@
       <c r="G7" s="169"/>
       <c r="H7" s="170"/>
       <c r="I7" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J7" s="139">
         <f>Raw_CCHP!U4</f>
@@ -10633,7 +10633,7 @@
         <v>CHP: Int Combust.BGS S.COM</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPBGS_02</v>
@@ -10656,7 +10656,7 @@
       <c r="G8" s="169"/>
       <c r="H8" s="170"/>
       <c r="I8" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J8" s="139">
         <f>Raw_CCHP!U5</f>
@@ -10748,7 +10748,7 @@
         <v>CHP: Int Combust.BGS L.COM</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPBIO_01</v>
@@ -10771,7 +10771,7 @@
       <c r="G9" s="169"/>
       <c r="H9" s="170"/>
       <c r="I9" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J9" s="139">
         <f>Raw_CCHP!U6</f>
@@ -10863,7 +10863,7 @@
         <v>CHP: Int Combust.DME S.COM</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPBIO_02</v>
@@ -10886,7 +10886,7 @@
       <c r="G10" s="169"/>
       <c r="H10" s="170"/>
       <c r="I10" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J10" s="139">
         <f>Raw_CCHP!U7</f>
@@ -10978,7 +10978,7 @@
         <v>CHP: Int Combust.DME L.COM</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPGAS_01_IC</v>
@@ -11001,7 +11001,7 @@
       <c r="G11" s="169"/>
       <c r="H11" s="170"/>
       <c r="I11" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J11" s="139">
         <f>Raw_CCHP!U8</f>
@@ -11093,7 +11093,7 @@
         <v>CHP: Int Combust.Gas S.COM</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPGAS_02_IC</v>
@@ -11116,7 +11116,7 @@
       <c r="G12" s="169"/>
       <c r="H12" s="170"/>
       <c r="I12" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J12" s="139">
         <f>Raw_CCHP!U9</f>
@@ -11208,7 +11208,7 @@
         <v>CHP: Int Combust.Gas M.COM</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPGAS_03_IC</v>
@@ -11231,7 +11231,7 @@
       <c r="G13" s="169"/>
       <c r="H13" s="170"/>
       <c r="I13" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J13" s="139">
         <f>Raw_CCHP!U10</f>
@@ -11323,7 +11323,7 @@
         <v>CHP: Int Combust.Gas L.COM</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPOIL_01_IC</v>
@@ -11346,7 +11346,7 @@
       <c r="G14" s="169"/>
       <c r="H14" s="170"/>
       <c r="I14" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J14" s="139">
         <f>Raw_CCHP!U11</f>
@@ -11438,7 +11438,7 @@
         <v>CHP: Int Combust.OIL S.COM</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPOIL_02_IC</v>
@@ -11461,7 +11461,7 @@
       <c r="G15" s="169"/>
       <c r="H15" s="170"/>
       <c r="I15" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J15" s="139">
         <f>Raw_CCHP!U12</f>
@@ -11553,7 +11553,7 @@
         <v>CHP: Int Combust.OIL M.COM</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPOIL_03_IC</v>
@@ -11576,7 +11576,7 @@
       <c r="G16" s="169"/>
       <c r="H16" s="170"/>
       <c r="I16" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J16" s="139">
         <f>Raw_CCHP!U13</f>
@@ -11668,7 +11668,7 @@
         <v>CHP: Int Combust.OIL L.COM</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPBGS_03_MCFC</v>
@@ -11792,7 +11792,7 @@
         <v>CHP: Fuel Cell MCFC.BGS.COM</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPGAS_04_MCFC</v>
@@ -11907,7 +11907,7 @@
         <v>CHP: Fuel Cell MCFC.GAS.COM</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPBGS_04_SOFC</v>
@@ -12031,7 +12031,7 @@
         <v>CHP: Fuel Cell SOFC.BGS.COM</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="135" t="str">
         <f t="shared" si="0"/>
         <v>COMCHPGAS_05_SOFC</v>
@@ -12155,27 +12155,27 @@
         <v>CHP: Fuel Cell SOFC.GAS.COM</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="234"/>
       <c r="B21" s="234"/>
       <c r="V21" s="234"/>
       <c r="W21" s="234"/>
       <c r="X21" s="234"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="V22" s="234"/>
       <c r="W22" s="234"/>
       <c r="X22" s="234"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="W23" s="234"/>
       <c r="X23" s="234"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="W24" s="234"/>
       <c r="X24" s="234"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="X25" s="234"/>
       <c r="Y25" s="234"/>
     </row>
@@ -12196,13 +12196,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>85</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="AJ3" s="155"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>637</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>[ CHP: Int Combust.BGS S.COM</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>638</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>[ CHP: Int Combust.BGS L.COM</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>639</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>[ CHP: Int Combust.DME S.COM</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>640</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>[ CHP: Int Combust.DME L.COM</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>641</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>[ CHP: Int Combust.Gas S.COM</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>642</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>[ CHP: Int Combust.Gas M.COM</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>643</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>[ CHP: Int Combust.Gas L.COM</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>644</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>[ CHP: Int Combust.OIL S.COM</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>645</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>[ CHP: Int Combust.OIL M.COM</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>646</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>[ CHP: Int Combust.OIL L.COM</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>647</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>[ CHP: Fuel Cell MCFC.BGS.COM</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>648</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>[ CHP: Fuel Cell MCFC.GAS.COM</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>649</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>[ CHP: Fuel Cell SOFC.BGS.COM</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>650</v>
       </c>
@@ -13537,17 +13537,17 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="68.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="19"/>
-    <col min="5" max="5" width="13.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="19"/>
+    <col min="1" max="1" width="3.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="19"/>
+    <col min="5" max="5" width="13.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
@@ -13555,18 +13555,18 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="18"/>
       <c r="D4" s="20"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>45</v>
       </c>
@@ -13574,7 +13574,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>46</v>
       </c>
@@ -13584,7 +13584,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>48</v>
       </c>
@@ -13594,7 +13594,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>50</v>
       </c>
@@ -13604,7 +13604,7 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>52</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>54</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>58</v>
       </c>
@@ -13644,7 +13644,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>60</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>62</v>
       </c>
@@ -13664,7 +13664,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>64</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
         <v>66</v>
       </c>
@@ -13684,13 +13684,13 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>68</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
       <c r="C19" s="31" t="s">
         <v>69</v>
@@ -13710,7 +13710,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="32"/>
       <c r="C20" s="29" t="s">
         <v>70</v>
@@ -13720,7 +13720,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
       <c r="D21" s="18"/>
@@ -13728,7 +13728,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>71</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
       <c r="C23" s="37" t="s">
         <v>72</v>
@@ -13748,7 +13748,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="38"/>
       <c r="C24" s="39" t="s">
         <v>73</v>
@@ -13758,14 +13758,14 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>74</v>
       </c>
@@ -13775,7 +13775,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>75</v>
       </c>
@@ -13787,7 +13787,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>77</v>
       </c>
@@ -13799,7 +13799,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>78</v>
       </c>
@@ -13810,7 +13810,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41" t="s">
         <v>80</v>
       </c>
@@ -13822,7 +13822,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -13830,7 +13830,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -13849,47 +13849,47 @@
   </sheetPr>
   <dimension ref="A1:AM107"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="I6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="47" customWidth="1"/>
     <col min="2" max="2" width="83" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="47"/>
+    <col min="3" max="3" width="17.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="47"/>
     <col min="7" max="7" width="9" style="47" customWidth="1"/>
-    <col min="8" max="9" width="9.1328125" style="47"/>
-    <col min="10" max="10" width="9.1328125" style="47" customWidth="1"/>
-    <col min="11" max="19" width="9.1328125" style="47"/>
-    <col min="20" max="20" width="3.59765625" style="47" customWidth="1"/>
-    <col min="21" max="21" width="12.3984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.73046875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="47"/>
+    <col min="10" max="10" width="9.140625" style="47" customWidth="1"/>
+    <col min="11" max="19" width="9.140625" style="47"/>
+    <col min="20" max="20" width="3.5703125" style="47" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="83" style="47" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.1328125" style="47"/>
-    <col min="26" max="26" width="12.265625" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.265625" style="47" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="9.1328125" style="47"/>
-    <col min="32" max="32" width="15.1328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.59765625" style="47" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="47"/>
+    <col min="26" max="26" width="12.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9.140625" style="47"/>
+    <col min="32" max="32" width="15.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" style="47" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" style="47" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1328125" style="47"/>
+    <col min="35" max="35" width="9.140625" style="47"/>
     <col min="36" max="36" width="13" style="47" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.3984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.1328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.1328125" style="47"/>
+    <col min="37" max="37" width="13.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B1" s="77"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>36</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D3" s="50" t="s">
         <v>83</v>
       </c>
@@ -13922,7 +13922,7 @@
       <c r="AA3" s="52"/>
       <c r="AB3" s="52"/>
     </row>
-    <row r="4" spans="1:39" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>13</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="str">
         <f>V6</f>
         <v>CHCSELC_01_Rad</v>
@@ -14102,7 +14102,7 @@
         <v/>
       </c>
       <c r="I6" s="80">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J6" s="81">
         <f>Raw_CH!L30</f>
@@ -14165,7 +14165,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="str">
         <f t="shared" ref="A7:A43" si="1">V7</f>
         <v>CHCSELC_02_Boi</v>
@@ -14197,7 +14197,7 @@
         <v/>
       </c>
       <c r="I7" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J7" s="81">
         <f>Raw_CH!L31</f>
@@ -14257,7 +14257,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_03_HP</v>
@@ -14289,7 +14289,7 @@
         <v/>
       </c>
       <c r="I8" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J8" s="81">
         <f>Raw_CH!L32</f>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="AG8" s="69"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_04_DHP</v>
@@ -14382,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J9" s="81">
         <f>Raw_CH!L33</f>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="AG9" s="70"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_05_HP</v>
@@ -14475,7 +14475,7 @@
         <v/>
       </c>
       <c r="I10" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J10" s="81">
         <f>Raw_CH!L34</f>
@@ -14535,7 +14535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_06_DHP</v>
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J11" s="81">
         <f>Raw_CH!L35</f>
@@ -14635,7 +14635,7 @@
       <c r="AL11" s="72"/>
       <c r="AM11" s="72"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_07_HP</v>
@@ -14667,7 +14667,7 @@
         <v/>
       </c>
       <c r="I12" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J12" s="81">
         <f>Raw_CH!L36</f>
@@ -14735,7 +14735,7 @@
       <c r="AL12" s="72"/>
       <c r="AM12" s="72"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_08_DHP</v>
@@ -14767,7 +14767,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J13" s="81">
         <f>Raw_CH!L37</f>
@@ -14835,7 +14835,7 @@
       <c r="AL13" s="72"/>
       <c r="AM13" s="72"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="86" t="str">
         <f t="shared" si="1"/>
         <v>*CHCSFCH_01</v>
@@ -14867,7 +14867,7 @@
         <v/>
       </c>
       <c r="I14" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J14" s="81">
         <f>Raw_CH!L38</f>
@@ -14935,7 +14935,7 @@
       <c r="AL14" s="72"/>
       <c r="AM14" s="72"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_01_Boi</v>
@@ -14967,7 +14967,7 @@
         <v/>
       </c>
       <c r="I15" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J15" s="82">
         <f>Raw_CH!L39</f>
@@ -15035,7 +15035,7 @@
       <c r="AL15" s="72"/>
       <c r="AM15" s="72"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_02_DBoi</v>
@@ -15067,7 +15067,7 @@
         <v/>
       </c>
       <c r="I16" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J16" s="82">
         <f>Raw_CH!L40</f>
@@ -15127,7 +15127,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_03_Boi</v>
@@ -15159,7 +15159,7 @@
         <v/>
       </c>
       <c r="I17" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J17" s="82">
         <f>Raw_CH!L41</f>
@@ -15219,7 +15219,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_04_DBoi</v>
@@ -15251,7 +15251,7 @@
         <v/>
       </c>
       <c r="I18" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J18" s="82">
         <f>Raw_CH!L42</f>
@@ -15311,7 +15311,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_05_HP</v>
@@ -15343,7 +15343,7 @@
         <v/>
       </c>
       <c r="I19" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J19" s="82">
         <f>Raw_CH!L43</f>
@@ -15403,7 +15403,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_06_DHP</v>
@@ -15435,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J20" s="82">
         <f>Raw_CH!L44</f>
@@ -15495,7 +15495,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSLPG_01_Boi</v>
@@ -15527,7 +15527,7 @@
         <v/>
       </c>
       <c r="I21" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J21" s="82">
         <f>Raw_CH!L45</f>
@@ -15587,7 +15587,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSLPG_02_DBoi</v>
@@ -15619,7 +15619,7 @@
         <v/>
       </c>
       <c r="I22" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J22" s="82">
         <f>Raw_CH!L46</f>
@@ -15679,7 +15679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSLPG_04_DHP</v>
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J23" s="82">
         <f>Raw_CH!L47</f>
@@ -15771,7 +15771,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSHET_01_DH</v>
@@ -15803,7 +15803,7 @@
         <v/>
       </c>
       <c r="I24" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J24" s="82">
         <f>Raw_CH!L48</f>
@@ -15863,7 +15863,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSOIL_01_Boi</v>
@@ -15895,7 +15895,7 @@
         <v/>
       </c>
       <c r="I25" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J25" s="82">
         <f>Raw_CH!L49</f>
@@ -15955,7 +15955,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSOIL_02_DBoi</v>
@@ -15987,7 +15987,7 @@
         <v/>
       </c>
       <c r="I26" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J26" s="82">
         <f>Raw_CH!L50</f>
@@ -16047,7 +16047,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSOIL_03_DBoi</v>
@@ -16079,7 +16079,7 @@
         <v/>
       </c>
       <c r="I27" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J27" s="82">
         <f>Raw_CH!L51</f>
@@ -16139,7 +16139,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSSOL_01_EBkp</v>
@@ -16171,7 +16171,7 @@
         <v/>
       </c>
       <c r="I28" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J28" s="82">
         <f>Raw_CH!L52</f>
@@ -16231,7 +16231,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSSOL_02_DBkp</v>
@@ -16263,7 +16263,7 @@
         <v/>
       </c>
       <c r="I29" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J29" s="82">
         <f>Raw_CH!L53</f>
@@ -16323,7 +16323,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSSOL_03_GBkp</v>
@@ -16355,7 +16355,7 @@
         <v/>
       </c>
       <c r="I30" s="88">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J30" s="82">
         <f>Raw_CH!L54</f>
@@ -16415,7 +16415,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="str">
         <f t="shared" si="1"/>
         <v>CHCSBIO_01_DBoi</v>
@@ -16447,7 +16447,7 @@
         <v/>
       </c>
       <c r="I31" s="93">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J31" s="94">
         <f>Raw_CH!L55</f>
@@ -16510,7 +16510,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="98"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -16539,7 +16539,7 @@
       <c r="AA32" s="85"/>
       <c r="AB32" s="85"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="98"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -16568,7 +16568,7 @@
       <c r="AA33" s="85"/>
       <c r="AB33" s="85"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D34" s="50" t="s">
         <v>83</v>
       </c>
@@ -16589,7 +16589,7 @@
       <c r="AA34" s="52"/>
       <c r="AB34" s="52"/>
     </row>
-    <row r="35" spans="1:30" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>2</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>13</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_01_Rad</v>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="I37" s="80">
         <f t="shared" ref="I37:O43" si="9">I6</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J37" s="81">
         <f t="shared" si="9"/>
@@ -16832,7 +16832,7 @@
       <c r="Z37" s="85"/>
       <c r="AD37" s="158"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_02_Boi</v>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="I38" s="88">
         <f t="shared" si="9"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J38" s="82">
         <f t="shared" si="9"/>
@@ -16924,7 +16924,7 @@
       <c r="Z38" s="85"/>
       <c r="AD38" s="158"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_03_HP</v>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="I39" s="88">
         <f t="shared" si="9"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J39" s="82">
         <f t="shared" si="9"/>
@@ -17016,7 +17016,7 @@
       <c r="Z39" s="85"/>
       <c r="AD39" s="158"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_04_DHP</v>
@@ -17050,7 +17050,7 @@
       </c>
       <c r="I40" s="88">
         <f t="shared" si="9"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J40" s="82">
         <f t="shared" si="9"/>
@@ -17108,7 +17108,7 @@
       <c r="Z40" s="85"/>
       <c r="AD40" s="158"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_05_HP</v>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="I41" s="88">
         <f t="shared" si="9"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J41" s="82">
         <f t="shared" si="9"/>
@@ -17200,7 +17200,7 @@
       <c r="Z41" s="85"/>
       <c r="AD41" s="158"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_06_DHP</v>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="I42" s="88">
         <f t="shared" si="9"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J42" s="82">
         <f t="shared" si="9"/>
@@ -17292,7 +17292,7 @@
       <c r="Z42" s="85"/>
       <c r="AD42" s="158"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_07_HP</v>
@@ -17326,7 +17326,7 @@
       </c>
       <c r="I43" s="88">
         <f t="shared" si="9"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J43" s="82">
         <f t="shared" si="9"/>
@@ -17384,7 +17384,7 @@
       <c r="Z43" s="85"/>
       <c r="AD43" s="158"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="86" t="str">
         <f t="shared" ref="A44:A62" si="12">V44</f>
         <v>CHPSELC_08_DHP</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="I44" s="88">
         <f t="shared" ref="I44:O44" si="14">I13</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J44" s="82">
         <f t="shared" si="14"/>
@@ -17476,7 +17476,7 @@
       <c r="Z44" s="85"/>
       <c r="AD44" s="158"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="86" t="str">
         <f t="shared" si="12"/>
         <v>*CHPSFCH_01</v>
@@ -17510,7 +17510,7 @@
       </c>
       <c r="I45" s="88">
         <f t="shared" ref="I45:O45" si="16">I14</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J45" s="82">
         <f t="shared" si="16"/>
@@ -17568,7 +17568,7 @@
       <c r="Z45" s="85"/>
       <c r="AD45" s="158"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSGAS_01_Boi</v>
@@ -17602,7 +17602,7 @@
       </c>
       <c r="I46" s="88">
         <f t="shared" ref="I46:O46" si="18">I15</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J46" s="82">
         <f t="shared" si="18"/>
@@ -17660,7 +17660,7 @@
       <c r="Z46" s="85"/>
       <c r="AD46" s="158"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSGAS_02_DBoi</v>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="I47" s="88">
         <f t="shared" ref="I47:O47" si="20">I16</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J47" s="82">
         <f t="shared" si="20"/>
@@ -17752,7 +17752,7 @@
       <c r="Z47" s="85"/>
       <c r="AD47" s="158"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSGAS_03_Boi</v>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="I48" s="88">
         <f t="shared" ref="I48:O48" si="22">I17</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J48" s="82">
         <f t="shared" si="22"/>
@@ -17844,7 +17844,7 @@
       <c r="Z48" s="85"/>
       <c r="AD48" s="158"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSGAS_04_DBoi</v>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="I49" s="88">
         <f t="shared" ref="I49:O49" si="24">I18</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J49" s="82">
         <f t="shared" si="24"/>
@@ -17936,7 +17936,7 @@
       <c r="Z49" s="85"/>
       <c r="AD49" s="158"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSGAS_05_HP</v>
@@ -17970,7 +17970,7 @@
       </c>
       <c r="I50" s="88">
         <f t="shared" ref="I50:O50" si="26">I19</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J50" s="82">
         <f t="shared" si="26"/>
@@ -18028,7 +18028,7 @@
       <c r="Z50" s="85"/>
       <c r="AD50" s="158"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSGAS_06_DHP</v>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="I51" s="88">
         <f t="shared" ref="I51:O51" si="28">I20</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J51" s="82">
         <f t="shared" si="28"/>
@@ -18120,7 +18120,7 @@
       <c r="Z51" s="85"/>
       <c r="AD51" s="158"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSLPG_01_Boi</v>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="I52" s="88">
         <f t="shared" ref="I52:O52" si="30">I21</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J52" s="82">
         <f t="shared" si="30"/>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="AD52" s="158"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSLPG_02_DBoi</v>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="I53" s="88">
         <f t="shared" ref="I53:O53" si="32">I22</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J53" s="82">
         <f t="shared" si="32"/>
@@ -18302,7 +18302,7 @@
       </c>
       <c r="AD53" s="158"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSLPG_04_DHP</v>
@@ -18336,7 +18336,7 @@
       </c>
       <c r="I54" s="88">
         <f t="shared" ref="I54:O54" si="34">I23</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J54" s="82">
         <f t="shared" si="34"/>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="AD54" s="158"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSHET_01_DH</v>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="I55" s="88">
         <f t="shared" ref="I55:O55" si="36">I24</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J55" s="82">
         <f t="shared" si="36"/>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="AD55" s="158"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSOIL_01_Boi</v>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="I56" s="88">
         <f t="shared" ref="I56:O56" si="38">I25</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J56" s="82">
         <f t="shared" si="38"/>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="AD56" s="158"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSOIL_02_DBoi</v>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="I57" s="88">
         <f t="shared" ref="I57:O57" si="40">I26</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J57" s="82">
         <f t="shared" si="40"/>
@@ -18666,7 +18666,7 @@
       </c>
       <c r="AD57" s="158"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSOIL_03_DBoi</v>
@@ -18700,7 +18700,7 @@
       </c>
       <c r="I58" s="88">
         <f t="shared" ref="I58:O58" si="42">I27</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J58" s="82">
         <f t="shared" si="42"/>
@@ -18757,7 +18757,7 @@
       </c>
       <c r="AD58" s="158"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSSOL_01_EBkp</v>
@@ -18791,7 +18791,7 @@
       </c>
       <c r="I59" s="88">
         <f t="shared" ref="I59:O59" si="44">I28</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J59" s="82">
         <f t="shared" si="44"/>
@@ -18848,7 +18848,7 @@
       </c>
       <c r="AD59" s="158"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSSOL_02_DBkp</v>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="I60" s="88">
         <f t="shared" ref="I60:O60" si="46">I29</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J60" s="82">
         <f t="shared" si="46"/>
@@ -18939,7 +18939,7 @@
       </c>
       <c r="AD60" s="158"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="86" t="str">
         <f t="shared" si="12"/>
         <v>CHPSSOL_03_GBkp</v>
@@ -18973,7 +18973,7 @@
       </c>
       <c r="I61" s="88">
         <f t="shared" ref="I61:O61" si="48">I30</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J61" s="82">
         <f t="shared" si="48"/>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="AD61" s="158"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="91" t="str">
         <f t="shared" si="12"/>
         <v>CHPSBIO_01_DBoi</v>
@@ -19064,7 +19064,7 @@
       </c>
       <c r="I62" s="93">
         <f t="shared" ref="I62:O62" si="50">I31</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J62" s="94">
         <f t="shared" si="50"/>
@@ -19125,13 +19125,13 @@
       <c r="AB62" s="97"/>
       <c r="AD62" s="188"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="216" t="s">
         <v>589</v>
       </c>
       <c r="B65" s="216"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D66" s="191" t="s">
         <v>576</v>
       </c>
@@ -19152,7 +19152,7 @@
       <c r="AA66" s="52"/>
       <c r="AB66" s="52"/>
     </row>
-    <row r="67" spans="1:34" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:34" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>2</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="201" t="s">
         <v>13</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="217" t="str">
         <f t="shared" ref="A69:A72" si="52">V69</f>
         <v>CHCSGH2_01_Boi</v>
@@ -19373,7 +19373,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="86" t="str">
         <f t="shared" si="52"/>
         <v>CHCSGH2_02_DBoi</v>
@@ -19456,7 +19456,7 @@
       <c r="AG70" s="211"/>
       <c r="AH70" s="211"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="86" t="str">
         <f t="shared" si="52"/>
         <v>CHCSGH2_03_HP</v>
@@ -19536,7 +19536,7 @@
       <c r="AG71" s="211"/>
       <c r="AH71" s="211"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="91" t="str">
         <f t="shared" si="52"/>
         <v>CHCSGH2_04_DHP</v>
@@ -19619,7 +19619,7 @@
       <c r="AG72" s="211"/>
       <c r="AH72" s="211"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="98"/>
       <c r="B73" s="75"/>
       <c r="C73" s="229"/>
@@ -19655,7 +19655,7 @@
       <c r="AG73" s="211"/>
       <c r="AH73" s="211"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D74" s="191" t="s">
         <v>576</v>
       </c>
@@ -19682,7 +19682,7 @@
       <c r="AG74" s="211"/>
       <c r="AH74" s="211"/>
     </row>
-    <row r="75" spans="1:34" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>2</v>
       </c>
@@ -19771,7 +19771,7 @@
       <c r="AG75" s="211"/>
       <c r="AH75" s="211"/>
     </row>
-    <row r="76" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:34" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="201" t="s">
         <v>13</v>
       </c>
@@ -19842,7 +19842,7 @@
       <c r="AG76" s="211"/>
       <c r="AH76" s="211"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="217" t="str">
         <f t="shared" ref="A77:A80" si="54">V77</f>
         <v>CHPSGH2_01_Boi</v>
@@ -19940,7 +19940,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="86" t="str">
         <f t="shared" si="54"/>
         <v>CHPSGH2_02_DBoi</v>
@@ -20036,7 +20036,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="86" t="str">
         <f t="shared" si="54"/>
         <v>CHPSGH2_03_HP</v>
@@ -20132,7 +20132,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="91" t="str">
         <f t="shared" si="54"/>
         <v>CHPSGH2_04_DHP</v>
@@ -20228,12 +20228,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="233" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="231" t="s">
         <v>597</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="P86" s="231"/>
       <c r="Q86" s="231"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="231" t="s">
         <v>2</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="231" t="s">
         <v>13</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="231" t="s">
         <v>615</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="231" t="s">
         <v>621</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="231"/>
       <c r="B91" s="231"/>
       <c r="C91" s="231"/>
@@ -20471,7 +20471,7 @@
       <c r="P91" s="231"/>
       <c r="Q91" s="231"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="231" t="s">
         <v>624</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="231"/>
       <c r="B93" s="231"/>
       <c r="C93" s="231"/>
@@ -20543,7 +20543,7 @@
       <c r="P93" s="231"/>
       <c r="Q93" s="231"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="231" t="s">
         <v>625</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="231"/>
       <c r="B95" s="231"/>
       <c r="C95" s="231"/>
@@ -20615,7 +20615,7 @@
       <c r="P95" s="231"/>
       <c r="Q95" s="231"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="231" t="s">
         <v>626</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="231"/>
       <c r="B97" s="231"/>
       <c r="C97" s="231"/>
@@ -20687,7 +20687,7 @@
       <c r="P97" s="231"/>
       <c r="Q97" s="231"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="231" t="s">
         <v>628</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="231"/>
       <c r="B99" s="231"/>
       <c r="C99" s="231"/>
@@ -20759,7 +20759,7 @@
       <c r="P99" s="231"/>
       <c r="Q99" s="231"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="231" t="s">
         <v>629</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="231"/>
       <c r="B101" s="231"/>
       <c r="C101" s="231"/>
@@ -20831,7 +20831,7 @@
       <c r="P101" s="231"/>
       <c r="Q101" s="231"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="231" t="s">
         <v>630</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="231"/>
       <c r="B103" s="231"/>
       <c r="C103" s="231"/>
@@ -20905,7 +20905,7 @@
       <c r="P103" s="231"/>
       <c r="Q103" s="231"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="231"/>
       <c r="B104" s="231"/>
       <c r="C104" s="231"/>
@@ -20926,7 +20926,7 @@
       <c r="P104" s="231"/>
       <c r="Q104" s="231"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="231" t="s">
         <v>572</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="231"/>
       <c r="B106" s="231"/>
       <c r="C106" s="231"/>
@@ -20996,7 +20996,7 @@
       <c r="P106" s="231"/>
       <c r="Q106" s="231"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="231" t="s">
         <v>574</v>
       </c>
@@ -21059,15 +21059,15 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="19" width="12.3984375" style="1" customWidth="1"/>
+    <col min="3" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="19" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>84</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>282</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>[ Electric radiators  - Large</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>[ Electric boiler - Large</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>[ Air heat pump with electric boiler - Large</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>[ Air heat pump with electric boiler.HeatCool - Large</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>[ Adv Air heat pump with electric boiler - Large</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>[ Adv Air heat pump with electric boiler.HeatCool - Large</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>[ Ground heat pump with electric boiler  - Large</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>[ Ground heat pump with electric boiler.HeatCool - Large</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>[ FC output to Heat demand - Large</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>[ Natural gas boiler  - Large</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>[ Natural gas boiler.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>[ Natural gas boiler condensing  - Large</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>[ Natural gas boiler condensing.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>[ Air heat pump with natural gas boiler - Large</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>[ Air heat pump with natural gas boiler.HeatCool - Large</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>[ LPG boiler  - Large</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>[ LPG boiler.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>[ Air heat pump with LPG boiler.HeatCool - Large</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>[ District heat exchanger.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -22200,7 +22200,7 @@
         <v>[ Oil boiler  - Large</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -22250,7 +22250,7 @@
         <v>[ Oil boiler.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>[ Oil boiler condensing.HeatHotwater - Large</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>[ Solar collector with electric backup.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>[ Solar collector with diesel backup.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>[ Solar collector with gas backup.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>[ Wood-pellets boiler.HeatHotwater  - Large</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>129</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>[ Electric radiators  - Small</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>130</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>[ Electric boiler - Small</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>131</v>
       </c>
@@ -22635,7 +22635,7 @@
         <v>[ Air heat pump with electric boiler - Small</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>132</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>[ Air heat pump with electric boiler.HeatCool - Small</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>133</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>[ Adv Air heat pump with electric boiler - Small</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>134</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>[ Adv Air heat pump with electric boiler.HeatCool - Small</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>135</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>[ Ground heat pump with electric boiler  - Small</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>136</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>[ Ground heat pump with electric boiler.HeatCool - Small</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>137</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>[ FC output to Heat demand - Small</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>138</v>
       </c>
@@ -22943,7 +22943,7 @@
         <v>[ Natural gas boiler  - Small</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>139</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>[ Natural gas boiler.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>140</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>[ Natural gas boiler condensing  - Small</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>141</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>[ Natural gas boiler condensing.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>142</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>[ Air heat pump with natural gas boiler - Small</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>143</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>[ Air heat pump with natural gas boiler.HeatCool - Small</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>144</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>[ LPG boiler  - Small</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>145</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>[ LPG boiler.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>146</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>[ Air heat pump with LPG boiler.HeatCool - Small</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>147</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>[ District heat exchanger.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>148</v>
       </c>
@@ -23393,7 +23393,7 @@
         <v>[ Oil boiler  - Small</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>149</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>[ Oil boiler.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>150</v>
       </c>
@@ -23487,7 +23487,7 @@
         <v>[ Oil boiler condensing.HeatHotwater - Small</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>151</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>[ Solar collector with electric backup.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>152</v>
       </c>
@@ -23587,7 +23587,7 @@
         <v>[ Solar collector with diesel backup.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>153</v>
       </c>
@@ -23637,7 +23637,7 @@
         <v>[ Solar collector with gas backup.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>154</v>
       </c>
@@ -23684,31 +23684,31 @@
         <v>[ Wood-pellets boiler.HeatHotwater  - Small</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="103"/>
     </row>
-    <row r="81" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="81" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G81" s="103"/>
     </row>
-    <row r="82" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="82" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G82" s="103"/>
     </row>
-    <row r="83" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="83" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G83" s="103"/>
     </row>
-    <row r="84" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="84" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G84" s="103"/>
     </row>
-    <row r="85" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="85" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G85" s="103"/>
     </row>
-    <row r="86" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="86" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G86" s="103"/>
     </row>
-    <row r="87" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="87" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G87" s="103"/>
     </row>
-    <row r="88" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="88" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G88" s="103"/>
       <c r="I88" s="43"/>
       <c r="J88" s="43"/>
@@ -23717,7 +23717,7 @@
       <c r="R88" s="43"/>
       <c r="S88" s="43"/>
     </row>
-    <row r="89" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="89" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G89" s="103"/>
       <c r="I89" s="43"/>
       <c r="J89" s="43"/>
@@ -23726,7 +23726,7 @@
       <c r="R89" s="43"/>
       <c r="S89" s="43"/>
     </row>
-    <row r="90" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="90" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G90" s="103"/>
       <c r="I90" s="43"/>
       <c r="J90" s="43"/>
@@ -23735,7 +23735,7 @@
       <c r="R90" s="43"/>
       <c r="S90" s="43"/>
     </row>
-    <row r="91" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="91" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G91" s="103"/>
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
@@ -23744,7 +23744,7 @@
       <c r="R91" s="43"/>
       <c r="S91" s="43"/>
     </row>
-    <row r="92" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="92" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G92" s="103"/>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
@@ -23753,7 +23753,7 @@
       <c r="R92" s="43"/>
       <c r="S92" s="43"/>
     </row>
-    <row r="93" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="93" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I93" s="43"/>
       <c r="J93" s="43"/>
       <c r="P93" s="43"/>
@@ -23761,7 +23761,7 @@
       <c r="R93" s="43"/>
       <c r="S93" s="43"/>
     </row>
-    <row r="94" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="94" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I94" s="43"/>
       <c r="J94" s="43"/>
       <c r="P94" s="43"/>
@@ -23769,7 +23769,7 @@
       <c r="R94" s="43"/>
       <c r="S94" s="43"/>
     </row>
-    <row r="95" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="95" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I95" s="43"/>
       <c r="J95" s="43"/>
       <c r="P95" s="43"/>
@@ -23777,7 +23777,7 @@
       <c r="R95" s="43"/>
       <c r="S95" s="43"/>
     </row>
-    <row r="96" spans="7:19" x14ac:dyDescent="0.45">
+    <row r="96" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I96" s="43"/>
       <c r="J96" s="43"/>
       <c r="P96" s="43"/>
@@ -23785,7 +23785,7 @@
       <c r="R96" s="43"/>
       <c r="S96" s="43"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
       <c r="P97" s="43"/>
@@ -23793,7 +23793,7 @@
       <c r="R97" s="43"/>
       <c r="S97" s="43"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I98" s="43"/>
       <c r="J98" s="43"/>
       <c r="P98" s="43"/>
@@ -23801,7 +23801,7 @@
       <c r="R98" s="43"/>
       <c r="S98" s="43"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I99" s="43"/>
       <c r="J99" s="43"/>
       <c r="P99" s="43"/>
@@ -23809,7 +23809,7 @@
       <c r="R99" s="43"/>
       <c r="S99" s="43"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I100" s="43"/>
       <c r="J100" s="43"/>
       <c r="P100" s="43"/>
@@ -23817,7 +23817,7 @@
       <c r="R100" s="43"/>
       <c r="S100" s="43"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -23832,7 +23832,7 @@
       <c r="R101" s="43"/>
       <c r="S101" s="43"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -23847,7 +23847,7 @@
       <c r="R102" s="43"/>
       <c r="S102" s="43"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -23862,7 +23862,7 @@
       <c r="R103" s="43"/>
       <c r="S103" s="43"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I104" s="43"/>
       <c r="J104" s="43"/>
       <c r="P104" s="43"/>
@@ -23870,7 +23870,7 @@
       <c r="R104" s="43"/>
       <c r="S104" s="43"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I105" s="43"/>
       <c r="J105" s="43"/>
       <c r="P105" s="43"/>
@@ -23878,7 +23878,7 @@
       <c r="R105" s="43"/>
       <c r="S105" s="43"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I106" s="43"/>
       <c r="J106" s="43"/>
       <c r="P106" s="43"/>
@@ -23886,7 +23886,7 @@
       <c r="R106" s="43"/>
       <c r="S106" s="43"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I107" s="43"/>
       <c r="J107" s="43"/>
       <c r="P107" s="43"/>
@@ -23894,7 +23894,7 @@
       <c r="R107" s="43"/>
       <c r="S107" s="43"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I108" s="43"/>
       <c r="J108" s="43"/>
       <c r="P108" s="43"/>
@@ -23902,7 +23902,7 @@
       <c r="R108" s="43"/>
       <c r="S108" s="43"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I109" s="43"/>
       <c r="J109" s="43"/>
       <c r="P109" s="43"/>
@@ -23910,7 +23910,7 @@
       <c r="R109" s="43"/>
       <c r="S109" s="43"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I110" s="43"/>
       <c r="J110" s="43"/>
       <c r="P110" s="43"/>
@@ -23918,7 +23918,7 @@
       <c r="R110" s="43"/>
       <c r="S110" s="43"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I111" s="43"/>
       <c r="J111" s="43"/>
       <c r="P111" s="43"/>
@@ -23926,7 +23926,7 @@
       <c r="R111" s="43"/>
       <c r="S111" s="43"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I112" s="43"/>
       <c r="J112" s="43"/>
       <c r="P112" s="43"/>
@@ -23934,7 +23934,7 @@
       <c r="R112" s="43"/>
       <c r="S112" s="43"/>
     </row>
-    <row r="113" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="113" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I113" s="43"/>
       <c r="J113" s="43"/>
       <c r="P113" s="43"/>
@@ -23955,45 +23955,45 @@
   </sheetPr>
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" style="108" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="108" customWidth="1"/>
     <col min="2" max="2" width="76" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="108"/>
-    <col min="7" max="8" width="9.1328125" style="108" customWidth="1"/>
-    <col min="9" max="15" width="9.1328125" style="108"/>
-    <col min="16" max="16" width="3.59765625" style="108" customWidth="1"/>
-    <col min="17" max="17" width="12.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.59765625" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="108"/>
+    <col min="7" max="8" width="9.140625" style="108" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="108"/>
+    <col min="16" max="16" width="3.5703125" style="108" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="76" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.1328125" style="108"/>
-    <col min="22" max="22" width="12.265625" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.265625" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="9.1328125" style="108"/>
-    <col min="28" max="28" width="15.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.59765625" style="108" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="108"/>
+    <col min="22" max="22" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="9.140625" style="108"/>
+    <col min="28" max="28" width="15.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1328125" style="108"/>
+    <col min="31" max="31" width="9.140625" style="108"/>
     <col min="32" max="32" width="13" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.59765625" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="108"/>
+    <col min="33" max="33" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
         <v>348</v>
       </c>
       <c r="B1" s="107"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>36</v>
       </c>
@@ -24003,7 +24003,7 @@
       <c r="G2" s="110"/>
       <c r="H2" s="110"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D3" s="111" t="s">
         <v>83</v>
       </c>
@@ -24022,7 +24022,7 @@
       <c r="W3" s="113"/>
       <c r="X3" s="113"/>
     </row>
-    <row r="4" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>2</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>13</v>
       </c>
@@ -24154,7 +24154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="126" t="str">
         <f t="shared" ref="A6:A17" si="0">R6</f>
         <v>CWCSBIO_01_Boi</v>
@@ -24174,7 +24174,7 @@
         <v>0.45</v>
       </c>
       <c r="F6" s="129">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G6" s="130">
         <f>Raw_CW!H16</f>
@@ -24233,7 +24233,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSELC_01_Boi</v>
@@ -24253,7 +24253,7 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="F7" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="130">
         <f>Raw_CW!H17</f>
@@ -24309,7 +24309,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSELC_02_HP</v>
@@ -24329,7 +24329,7 @@
         <v>0.9</v>
       </c>
       <c r="F8" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="130">
         <f>Raw_CW!H18</f>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="AC8" s="143"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>*CWCSFCW_01</v>
@@ -24406,7 +24406,7 @@
         <v>0.9</v>
       </c>
       <c r="F9" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G9" s="130">
         <f>Raw_CW!H19</f>
@@ -24463,7 +24463,7 @@
       </c>
       <c r="AC9" s="144"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSGAS_01_Boi</v>
@@ -24483,7 +24483,7 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="F10" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G10" s="130">
         <f>Raw_CW!H20</f>
@@ -24539,7 +24539,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSGEO_01</v>
@@ -24559,7 +24559,7 @@
         <v>0.9</v>
       </c>
       <c r="F11" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G11" s="130">
         <f>Raw_CW!H21</f>
@@ -24623,7 +24623,7 @@
       <c r="AH11" s="145"/>
       <c r="AI11" s="145"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSLPG_01_Boi</v>
@@ -24643,7 +24643,7 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="F12" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G12" s="130">
         <f>Raw_CW!H22</f>
@@ -24707,7 +24707,7 @@
       <c r="AH12" s="145"/>
       <c r="AI12" s="145"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSHET_01_DH</v>
@@ -24727,7 +24727,7 @@
         <v>0.79649999999999999</v>
       </c>
       <c r="F13" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="130">
         <f>Raw_CW!H23</f>
@@ -24791,7 +24791,7 @@
       <c r="AH13" s="145"/>
       <c r="AI13" s="145"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSOIL_01_Boi</v>
@@ -24811,7 +24811,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="F14" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G14" s="130">
         <f>Raw_CW!H24</f>
@@ -24875,7 +24875,7 @@
       <c r="AH14" s="145"/>
       <c r="AI14" s="145"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSSOL_01_EBkp</v>
@@ -24895,7 +24895,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="F15" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G15" s="147">
         <f>Raw_CW!H25</f>
@@ -24959,7 +24959,7 @@
       <c r="AH15" s="145"/>
       <c r="AI15" s="145"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSSOL_02_DBkp</v>
@@ -24979,7 +24979,7 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F16" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G16" s="147">
         <f>Raw_CW!H26</f>
@@ -25035,7 +25035,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSSOL_03_GBkp</v>
@@ -25055,7 +25055,7 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="F17" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G17" s="147">
         <f>Raw_CW!H27</f>
@@ -25111,7 +25111,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="148"/>
       <c r="B18" s="149"/>
       <c r="C18" s="149"/>
@@ -25136,7 +25136,7 @@
       <c r="W18" s="134"/>
       <c r="X18" s="134"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="148"/>
       <c r="B19" s="149"/>
       <c r="C19" s="149"/>
@@ -25161,7 +25161,7 @@
       <c r="W19" s="134"/>
       <c r="X19" s="134"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D20" s="111" t="s">
         <v>83</v>
       </c>
@@ -25180,7 +25180,7 @@
       <c r="W20" s="113"/>
       <c r="X20" s="113"/>
     </row>
-    <row r="21" spans="1:26" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
         <v>2</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
         <v>13</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="126" t="str">
         <f t="shared" ref="A23:A34" si="3">R23</f>
         <v>CWPSBIO_01_Boi</v>
@@ -25334,7 +25334,7 @@
       </c>
       <c r="F23" s="129">
         <f t="shared" ref="F23:G34" si="7">F6</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G23" s="130">
         <f t="shared" si="7"/>
@@ -25387,7 +25387,7 @@
       </c>
       <c r="V23" s="134"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSELC_01_Boi</v>
@@ -25409,7 +25409,7 @@
       </c>
       <c r="F24" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G24" s="147">
         <f t="shared" si="7"/>
@@ -25459,7 +25459,7 @@
       </c>
       <c r="V24" s="134"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSELC_02_HP</v>
@@ -25481,7 +25481,7 @@
       </c>
       <c r="F25" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G25" s="147">
         <f t="shared" si="7"/>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="V25" s="134"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="135" t="str">
         <f t="shared" si="3"/>
         <v>*CWPSFCW_01</v>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="F26" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G26" s="147">
         <f t="shared" si="7"/>
@@ -25603,7 +25603,7 @@
       </c>
       <c r="V26" s="134"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSGAS_01_Boi</v>
@@ -25625,7 +25625,7 @@
       </c>
       <c r="F27" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G27" s="147">
         <f t="shared" si="7"/>
@@ -25675,7 +25675,7 @@
       </c>
       <c r="V27" s="134"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSGEO_01</v>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="F28" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G28" s="147">
         <f t="shared" si="7"/>
@@ -25747,7 +25747,7 @@
       </c>
       <c r="V28" s="134"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSLPG_01_Boi</v>
@@ -25769,7 +25769,7 @@
       </c>
       <c r="F29" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G29" s="147">
         <f t="shared" si="7"/>
@@ -25819,7 +25819,7 @@
       </c>
       <c r="V29" s="134"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSHET_01_DH</v>
@@ -25841,7 +25841,7 @@
       </c>
       <c r="F30" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G30" s="147">
         <f t="shared" si="7"/>
@@ -25891,7 +25891,7 @@
       </c>
       <c r="V30" s="134"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSOIL_01_Boi</v>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="F31" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G31" s="147">
         <f t="shared" si="7"/>
@@ -25963,7 +25963,7 @@
       </c>
       <c r="V31" s="134"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSSOL_01_EBkp</v>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="F32" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G32" s="147">
         <f t="shared" si="7"/>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="V32" s="134"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSSOL_02_DBkp</v>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F33" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G33" s="147">
         <f t="shared" si="7"/>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="V33" s="134"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSSOL_03_GBkp</v>
@@ -26129,7 +26129,7 @@
       </c>
       <c r="F34" s="139">
         <f t="shared" si="7"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G34" s="147">
         <f t="shared" si="7"/>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R35" s="134"/>
     </row>
   </sheetData>
@@ -26200,14 +26200,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>84</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>282</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>[ Biomass boiler water heater - Large</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -26401,7 +26401,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -26446,7 +26446,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -26488,7 +26488,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -26530,7 +26530,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -26572,7 +26572,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -26614,7 +26614,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -26656,7 +26656,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -26740,7 +26740,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -26782,7 +26782,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -26824,7 +26824,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>167</v>
       </c>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>168</v>
       </c>
@@ -26914,7 +26914,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>169</v>
       </c>
@@ -26961,7 +26961,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>170</v>
       </c>
@@ -27006,7 +27006,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>171</v>
       </c>
@@ -27051,7 +27051,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>172</v>
       </c>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>173</v>
       </c>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>174</v>
       </c>
@@ -27186,7 +27186,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>175</v>
       </c>
@@ -27231,7 +27231,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>176</v>
       </c>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>177</v>
       </c>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>178</v>
       </c>
@@ -27380,44 +27380,44 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" style="108" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="108" customWidth="1"/>
     <col min="2" max="2" width="76" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="108"/>
-    <col min="7" max="7" width="9.1328125" style="108" customWidth="1"/>
-    <col min="8" max="12" width="9.1328125" style="108"/>
-    <col min="13" max="13" width="3.59765625" style="108" customWidth="1"/>
-    <col min="14" max="14" width="12.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.73046875" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="108"/>
+    <col min="7" max="7" width="9.140625" style="108" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="108"/>
+    <col min="13" max="13" width="3.5703125" style="108" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="108" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="76" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.1328125" style="108"/>
-    <col min="19" max="19" width="12.265625" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.265625" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.1328125" style="108"/>
-    <col min="25" max="25" width="15.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.59765625" style="108" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="108"/>
+    <col min="19" max="19" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="108"/>
+    <col min="25" max="25" width="15.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1328125" style="108"/>
+    <col min="28" max="28" width="9.140625" style="108"/>
     <col min="29" max="29" width="13" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.59765625" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1328125" style="108"/>
+    <col min="30" max="30" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>379</v>
       </c>
       <c r="B1" s="107"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>36</v>
       </c>
@@ -27426,7 +27426,7 @@
       <c r="F2" s="110"/>
       <c r="G2" s="110"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D3" s="111" t="s">
         <v>83</v>
       </c>
@@ -27444,7 +27444,7 @@
       <c r="T3" s="113"/>
       <c r="U3" s="113"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>2</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>13</v>
       </c>
@@ -27564,7 +27564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="126" t="str">
         <f t="shared" ref="A6:B12" si="0">O6</f>
         <v>CCCSELC_01_Roo</v>
@@ -27584,7 +27584,7 @@
         <v>3.2</v>
       </c>
       <c r="F6" s="129">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G6" s="130">
         <f>Raw_CC!H10</f>
@@ -27631,7 +27631,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCCSELC_02_Fan</v>
@@ -27651,7 +27651,7 @@
         <v>3.2</v>
       </c>
       <c r="F7" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="130">
         <f>Raw_CC!H11</f>
@@ -27695,7 +27695,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCCSELC_03_Cen</v>
@@ -27715,7 +27715,7 @@
         <v>3.2</v>
       </c>
       <c r="F8" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="130">
         <f>Raw_CC!H12</f>
@@ -27760,7 +27760,7 @@
       </c>
       <c r="Z8" s="143"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCCSELC_04_Cen</v>
@@ -27780,7 +27780,7 @@
         <v>3.2</v>
       </c>
       <c r="F9" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G9" s="130">
         <f>Raw_CC!H13</f>
@@ -27825,7 +27825,7 @@
       </c>
       <c r="Z9" s="144"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCCSELC_05_HP</v>
@@ -27845,7 +27845,7 @@
         <v>3.2</v>
       </c>
       <c r="F10" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G10" s="130">
         <f>Raw_CC!H14</f>
@@ -27889,7 +27889,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCCSGAS_01_Cen</v>
@@ -27909,7 +27909,7 @@
         <v>4.41</v>
       </c>
       <c r="F11" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G11" s="130">
         <f>Raw_CC!H15</f>
@@ -27961,7 +27961,7 @@
       <c r="AE11" s="145"/>
       <c r="AF11" s="145"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCCSGAS_02_HP</v>
@@ -27981,7 +27981,7 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="F12" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G12" s="130">
         <f>Raw_CC!H16</f>
@@ -28033,7 +28033,7 @@
       <c r="AE12" s="145"/>
       <c r="AF12" s="145"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="148"/>
       <c r="B13" s="149"/>
       <c r="C13" s="149"/>
@@ -28055,7 +28055,7 @@
       <c r="T13" s="134"/>
       <c r="U13" s="134"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="148"/>
       <c r="B14" s="149"/>
       <c r="C14" s="149"/>
@@ -28077,7 +28077,7 @@
       <c r="T14" s="134"/>
       <c r="U14" s="134"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D15" s="111" t="s">
         <v>83</v>
       </c>
@@ -28095,7 +28095,7 @@
       <c r="T15" s="113"/>
       <c r="U15" s="113"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="114" t="s">
         <v>2</v>
       </c>
@@ -28157,7 +28157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="118" t="s">
         <v>13</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="126" t="str">
         <f t="shared" ref="A18:B24" si="2">O18</f>
         <v>CCPSELC_01_Roo</v>
@@ -28237,7 +28237,7 @@
       </c>
       <c r="F18" s="129">
         <f t="shared" ref="F18:L24" si="5">F6</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="130">
         <f t="shared" si="5"/>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="S18" s="134"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="135" t="str">
         <f t="shared" si="2"/>
         <v>CCPSELC_02_Fan</v>
@@ -28303,7 +28303,7 @@
       </c>
       <c r="F19" s="139">
         <f t="shared" si="5"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G19" s="147">
         <f t="shared" si="5"/>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="S19" s="134"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="135" t="str">
         <f t="shared" si="2"/>
         <v>CCPSELC_03_Cen</v>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="F20" s="139">
         <f t="shared" si="5"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G20" s="147">
         <f t="shared" si="5"/>
@@ -28407,7 +28407,7 @@
       </c>
       <c r="S20" s="134"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="135" t="str">
         <f t="shared" si="2"/>
         <v>CCPSELC_04_Cen</v>
@@ -28429,7 +28429,7 @@
       </c>
       <c r="F21" s="139">
         <f t="shared" si="5"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G21" s="147">
         <f t="shared" si="5"/>
@@ -28470,7 +28470,7 @@
       </c>
       <c r="S21" s="134"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="135" t="str">
         <f t="shared" si="2"/>
         <v>CCPSELC_05_HP</v>
@@ -28492,7 +28492,7 @@
       </c>
       <c r="F22" s="139">
         <f t="shared" si="5"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G22" s="147">
         <f t="shared" si="5"/>
@@ -28533,7 +28533,7 @@
       </c>
       <c r="S22" s="134"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="135" t="str">
         <f t="shared" si="2"/>
         <v>CCPSGAS_01_Cen</v>
@@ -28555,7 +28555,7 @@
       </c>
       <c r="F23" s="139">
         <f t="shared" si="5"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G23" s="147">
         <f t="shared" si="5"/>
@@ -28596,7 +28596,7 @@
       </c>
       <c r="S23" s="134"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="135" t="str">
         <f t="shared" si="2"/>
         <v>CCPSGAS_02_HP</v>
@@ -28618,7 +28618,7 @@
       </c>
       <c r="F24" s="139">
         <f t="shared" si="5"/>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G24" s="147">
         <f t="shared" si="5"/>
@@ -28677,16 +28677,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="155" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.265625" style="155" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.1328125" style="155"/>
-    <col min="15" max="15" width="9.1328125" style="155" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="155"/>
+    <col min="1" max="1" width="14.5703125" style="155" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="155"/>
+    <col min="15" max="15" width="9.140625" style="155" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="155" t="s">
         <v>282</v>
       </c>
@@ -28718,7 +28718,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="155" t="s">
         <v>88</v>
       </c>
@@ -28753,7 +28753,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
         <v>89</v>
       </c>
@@ -28800,7 +28800,7 @@
         <v>[ Room air-conditioner - Large</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
         <v>90</v>
       </c>
@@ -28847,7 +28847,7 @@
         <v>[ Air fans - Large</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="155" t="s">
         <v>91</v>
       </c>
@@ -28894,7 +28894,7 @@
         <v>[ Roof-top central electric chiller - Large</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
         <v>92</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>[ Centralized electrical air conditioner - Large</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="155" t="s">
         <v>93</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>[ Non-reversible electricity heat pump - Large</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="155" t="s">
         <v>94</v>
       </c>
@@ -29035,7 +29035,7 @@
         <v>[ Centralized gas air conditioner - Large</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="155" t="s">
         <v>95</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>[ Non reversible gas heat pump - Large</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="157" t="s">
         <v>96</v>
       </c>
@@ -29129,7 +29129,7 @@
         <v>[ Room air-conditioner - Small</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="157" t="s">
         <v>97</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>[ Air fans - Small</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="157" t="s">
         <v>98</v>
       </c>
@@ -29223,7 +29223,7 @@
         <v>[ Roof-top central electric chiller - Small</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
         <v>99</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>[ Centralized electrical air conditioner - Small</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="157" t="s">
         <v>100</v>
       </c>
@@ -29317,7 +29317,7 @@
         <v>[ Non-reversible electricity heat pump - Small</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="157" t="s">
         <v>101</v>
       </c>
@@ -29364,7 +29364,7 @@
         <v>[ Centralized gas air conditioner - Small</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="157" t="s">
         <v>102</v>
       </c>
@@ -29426,44 +29426,44 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L8"/>
+      <selection activeCell="F7" sqref="F7:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="47.86328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="108"/>
-    <col min="7" max="7" width="9.1328125" style="108" customWidth="1"/>
-    <col min="8" max="12" width="9.1328125" style="108"/>
-    <col min="13" max="13" width="3.59765625" style="108" customWidth="1"/>
-    <col min="14" max="14" width="12.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.73046875" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="47.86328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.1328125" style="108"/>
-    <col min="19" max="19" width="12.265625" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.265625" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.1328125" style="108"/>
-    <col min="25" max="25" width="15.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.59765625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="108" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="108"/>
+    <col min="7" max="7" width="9.140625" style="108" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="108"/>
+    <col min="13" max="13" width="3.5703125" style="108" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="108"/>
+    <col min="19" max="19" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="108"/>
+    <col min="25" max="25" width="15.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1328125" style="108"/>
+    <col min="28" max="28" width="9.140625" style="108"/>
     <col min="29" max="29" width="13" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.59765625" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.3984375" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1328125" style="108"/>
+    <col min="30" max="30" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>408</v>
       </c>
       <c r="B1" s="107"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>36</v>
       </c>
@@ -29472,7 +29472,7 @@
       <c r="F2" s="110"/>
       <c r="G2" s="110"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3" s="111" t="s">
         <v>83</v>
       </c>
@@ -29490,7 +29490,7 @@
       <c r="T3" s="113"/>
       <c r="U3" s="113"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>2</v>
       </c>
@@ -29552,7 +29552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
         <v>13</v>
       </c>
@@ -29610,7 +29610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="185" t="s">
         <v>415</v>
       </c>
@@ -29637,7 +29637,7 @@
       <c r="U6" s="185"/>
       <c r="W6" s="158"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="176" t="str">
         <f t="shared" ref="A7:B9" si="0">O7</f>
         <v>CCOKELC_01</v>
@@ -29657,7 +29657,7 @@
         <v>0.8</v>
       </c>
       <c r="F7" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="180">
         <f>Raw_COth!H4</f>
@@ -29704,7 +29704,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCOKGAS_01</v>
@@ -29724,7 +29724,7 @@
         <v>0.95</v>
       </c>
       <c r="F8" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="169">
         <f>Raw_COth!H5</f>
@@ -29768,7 +29768,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CCOKLPG_01</v>
@@ -29788,7 +29788,7 @@
         <v>0.6</v>
       </c>
       <c r="F9" s="139">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G9" s="169">
         <f>Raw_COth!H6</f>
@@ -29833,7 +29833,7 @@
       </c>
       <c r="Z9" s="143"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="185" t="s">
         <v>417</v>
       </c>
@@ -29859,7 +29859,7 @@
       <c r="T10" s="185"/>
       <c r="U10" s="185"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="176" t="str">
         <f t="shared" ref="A11:A15" si="2">O11</f>
         <v>CLIGELC_01_Inc</v>
@@ -29879,7 +29879,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G11" s="180">
         <f>Raw_COth!H12</f>
@@ -29926,7 +29926,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="176" t="str">
         <f t="shared" si="2"/>
         <v>CLIGELC_02_Inc</v>
@@ -29946,7 +29946,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F12" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G12" s="180">
         <f>Raw_COth!H13</f>
@@ -29989,7 +29989,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="176" t="str">
         <f t="shared" si="2"/>
         <v>CLIGELC_03_Hal</v>
@@ -30009,7 +30009,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F13" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="180">
         <f>Raw_COth!H14</f>
@@ -30052,7 +30052,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="176" t="str">
         <f t="shared" si="2"/>
         <v>CLIGELC_04_Flu</v>
@@ -30072,7 +30072,7 @@
         <v>4.5</v>
       </c>
       <c r="F14" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G14" s="180">
         <f>Raw_COth!H15</f>
@@ -30115,7 +30115,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="176" t="str">
         <f t="shared" si="2"/>
         <v>CPLIELC_01</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G15" s="180">
         <f>Raw_COth!H16</f>
@@ -30178,7 +30178,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="185" t="s">
         <v>416</v>
       </c>
@@ -30204,7 +30204,7 @@
       <c r="T16" s="185"/>
       <c r="U16" s="185"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="176" t="str">
         <f t="shared" ref="A17:A20" si="5">O17</f>
         <v>CREFELC_01_Ref</v>
@@ -30224,7 +30224,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G17" s="180">
         <f>Raw_COth!H22</f>
@@ -30267,7 +30267,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="176" t="str">
         <f t="shared" si="5"/>
         <v>CREFELC_02_Ref</v>
@@ -30287,7 +30287,7 @@
         <v>1.62</v>
       </c>
       <c r="F18" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="180">
         <f>Raw_COth!H23</f>
@@ -30330,7 +30330,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="176" t="str">
         <f t="shared" si="5"/>
         <v>CREFELC_03_Fre</v>
@@ -30350,7 +30350,7 @@
         <v>2.86</v>
       </c>
       <c r="F19" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G19" s="180">
         <f>Raw_COth!H24</f>
@@ -30393,7 +30393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="176" t="str">
         <f t="shared" si="5"/>
         <v>CREFELC_04_Fre</v>
@@ -30413,7 +30413,7 @@
         <v>3.01</v>
       </c>
       <c r="F20" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G20" s="180">
         <f>Raw_COth!H25</f>
@@ -30456,7 +30456,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="186" t="s">
         <v>430</v>
       </c>
@@ -30482,7 +30482,7 @@
       <c r="T21" s="185"/>
       <c r="U21" s="185"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="176" t="str">
         <f t="shared" ref="A22" si="8">O22</f>
         <v>COELELC_01</v>
@@ -30502,7 +30502,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="179">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G22" s="180">
         <f>Raw_COth!H31</f>
@@ -30553,9 +30553,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30705,19 +30708,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30741,9 +30740,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRes_COM-DTB.xlsx
+++ b/SubRES_TMPL/SubRes_COM-DTB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63099A-4641-427C-8E6E-0B76A86F1B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22105B94-5D65-4342-941D-C03902D02B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -4381,7 +4381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="711">
   <si>
     <t>Max. capacity factor</t>
   </si>
@@ -7079,7 +7079,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7692,6 +7692,18 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -10130,8 +10142,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10491,9 +10503,6 @@
       <c r="AF6" t="s">
         <v>455</v>
       </c>
-      <c r="AG6" t="s">
-        <v>309</v>
-      </c>
       <c r="AJ6" t="str">
         <f>Raw_CCHP!A3</f>
         <v>CHPCOMFCHH2110</v>
@@ -10606,9 +10615,7 @@
       <c r="AF7" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG7" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG7" s="234"/>
       <c r="AJ7" s="234" t="str">
         <f>Raw_CCHP!A4</f>
         <v>CHPCOMICBGS101</v>
@@ -10721,9 +10728,7 @@
       <c r="AF8" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG8" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG8" s="234"/>
       <c r="AJ8" s="234" t="str">
         <f>Raw_CCHP!A5</f>
         <v>CHPCOMICBGS201</v>
@@ -10836,9 +10841,7 @@
       <c r="AF9" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG9" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG9" s="234"/>
       <c r="AJ9" s="234" t="str">
         <f>Raw_CCHP!A6</f>
         <v>CHPCOMICDME101</v>
@@ -10951,9 +10954,7 @@
       <c r="AF10" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG10" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG10" s="234"/>
       <c r="AJ10" s="234" t="str">
         <f>Raw_CCHP!A7</f>
         <v>CHPCOMICDME201</v>
@@ -11066,9 +11067,7 @@
       <c r="AF11" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG11" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG11" s="234"/>
       <c r="AJ11" s="234" t="str">
         <f>Raw_CCHP!A8</f>
         <v>CHPCOMICGAS101</v>
@@ -11181,9 +11180,7 @@
       <c r="AF12" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG12" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG12" s="234"/>
       <c r="AJ12" s="234" t="str">
         <f>Raw_CCHP!A9</f>
         <v>CHPCOMICGAS201</v>
@@ -11296,9 +11293,7 @@
       <c r="AF13" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG13" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG13" s="234"/>
       <c r="AJ13" s="234" t="str">
         <f>Raw_CCHP!A10</f>
         <v>CHPCOMICGAS301</v>
@@ -11411,9 +11406,7 @@
       <c r="AF14" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG14" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG14" s="234"/>
       <c r="AJ14" s="234" t="str">
         <f>Raw_CCHP!A11</f>
         <v>CHPCOMICOIL101</v>
@@ -11526,9 +11519,7 @@
       <c r="AF15" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG15" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG15" s="234"/>
       <c r="AJ15" s="234" t="str">
         <f>Raw_CCHP!A12</f>
         <v>CHPCOMICOIL201</v>
@@ -11641,9 +11632,7 @@
       <c r="AF16" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG16" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG16" s="234"/>
       <c r="AJ16" s="234" t="str">
         <f>Raw_CCHP!A13</f>
         <v>CHPCOMICOIL301</v>
@@ -11765,9 +11754,7 @@
       <c r="AF17" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG17" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG17" s="234"/>
       <c r="AJ17" s="234" t="str">
         <f>Raw_CCHP!A14</f>
         <v>CHPCOMMFBGS110</v>
@@ -11880,9 +11867,7 @@
       <c r="AF18" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG18" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG18" s="234"/>
       <c r="AJ18" s="234" t="str">
         <f>Raw_CCHP!A15</f>
         <v>CHPCOMMFGAS101</v>
@@ -12004,9 +11989,7 @@
       <c r="AF19" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG19" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG19" s="234"/>
       <c r="AJ19" s="234" t="str">
         <f>Raw_CCHP!A16</f>
         <v>CHPCOMSFBGS110</v>
@@ -12128,9 +12111,7 @@
       <c r="AF20" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="AG20" s="234" t="s">
-        <v>309</v>
-      </c>
+      <c r="AG20" s="234"/>
       <c r="AJ20" s="234" t="str">
         <f>Raw_CCHP!A17</f>
         <v>CHPCOMSFGAS101</v>
@@ -12178,7 +12159,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13834,8 +13815,8 @@
   </sheetPr>
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14128,7 +14109,7 @@
         <v>483</v>
       </c>
       <c r="V6" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AC6</f>
+        <f t="shared" ref="V6:V20" si="0">"New commercial - CS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AC6</f>
         <v>New commercial - CS Space Heat ELC Electric radiator</v>
       </c>
       <c r="W6" s="47" t="s">
@@ -14144,11 +14125,11 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="str">
-        <f t="shared" ref="A7:A43" si="0">U7</f>
+        <f t="shared" ref="A7:A43" si="1">U7</f>
         <v>CHCSELC_02_Boi</v>
       </c>
       <c r="B7" s="66" t="str">
-        <f t="shared" ref="B7:B43" si="1">V7</f>
+        <f t="shared" ref="B7:B43" si="2">V7</f>
         <v>New commercial - CS Space Heat ELC Electric boiler</v>
       </c>
       <c r="C7" s="67" t="s">
@@ -14216,7 +14197,7 @@
         <v>484</v>
       </c>
       <c r="V7" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C7,3)&amp;" "&amp;AC7</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Electric boiler</v>
       </c>
       <c r="W7" s="47" t="s">
@@ -14232,11 +14213,11 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSELC_03_HP</v>
       </c>
       <c r="B8" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
       <c r="C8" s="67" t="s">
@@ -14304,7 +14285,7 @@
         <v>485</v>
       </c>
       <c r="V8" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C8,3)&amp;" "&amp;AC8</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
       <c r="W8" s="47" t="s">
@@ -14321,11 +14302,11 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSELC_04_DHP</v>
       </c>
       <c r="B9" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -14393,7 +14374,7 @@
         <v>486</v>
       </c>
       <c r="V9" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C9,3)&amp;" "&amp;AC9</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="W9" s="47" t="s">
@@ -14410,11 +14391,11 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSELC_05_HP</v>
       </c>
       <c r="B10" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
       <c r="C10" s="67" t="s">
@@ -14482,7 +14463,7 @@
         <v>487</v>
       </c>
       <c r="V10" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C10,3)&amp;" "&amp;AC10</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
       <c r="W10" s="47" t="s">
@@ -14498,11 +14479,11 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSELC_06_DHP</v>
       </c>
       <c r="B11" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C11" s="67" t="s">
@@ -14570,7 +14551,7 @@
         <v>488</v>
       </c>
       <c r="V11" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C11,3)&amp;" "&amp;AC11</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="W11" s="47" t="s">
@@ -14594,11 +14575,11 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSELC_07_HP</v>
       </c>
       <c r="B12" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
       <c r="C12" s="67" t="s">
@@ -14666,7 +14647,7 @@
         <v>489</v>
       </c>
       <c r="V12" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C12,3)&amp;" "&amp;AC12</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
       <c r="W12" s="47" t="s">
@@ -14690,11 +14671,11 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSELC_08_DHP</v>
       </c>
       <c r="B13" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C13" s="67" t="s">
@@ -14762,7 +14743,7 @@
         <v>490</v>
       </c>
       <c r="V13" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C13,3)&amp;" "&amp;AC13</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="W13" s="47" t="s">
@@ -14786,11 +14767,11 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*CHCSFCH_01</v>
       </c>
       <c r="B14" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat HET FC output to Heat demand</v>
       </c>
       <c r="C14" s="238" t="s">
@@ -14858,7 +14839,7 @@
         <v>424</v>
       </c>
       <c r="V14" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C14,3)&amp;" "&amp;AC14</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat HET FC output to Heat demand</v>
       </c>
       <c r="W14" s="47" t="s">
@@ -14882,11 +14863,11 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSGAS_01_Boi</v>
       </c>
       <c r="B15" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler</v>
       </c>
       <c r="C15" s="67" t="s">
@@ -14954,7 +14935,7 @@
         <v>491</v>
       </c>
       <c r="V15" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C15,3)&amp;" "&amp;AC15</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler</v>
       </c>
       <c r="W15" s="47" t="s">
@@ -14978,11 +14959,11 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSGAS_02_DBoi</v>
       </c>
       <c r="B16" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
       <c r="C16" s="67" t="s">
@@ -15050,7 +15031,7 @@
         <v>492</v>
       </c>
       <c r="V16" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C16,3)&amp;" "&amp;AC16</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
       <c r="W16" s="47" t="s">
@@ -15066,11 +15047,11 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSGAS_03_Boi</v>
       </c>
       <c r="B17" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -15138,7 +15119,7 @@
         <v>493</v>
       </c>
       <c r="V17" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C17,3)&amp;" "&amp;AC17</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing</v>
       </c>
       <c r="W17" s="47" t="s">
@@ -15154,11 +15135,11 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSGAS_04_DBoi</v>
       </c>
       <c r="B18" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
       <c r="C18" s="67" t="s">
@@ -15226,7 +15207,7 @@
         <v>494</v>
       </c>
       <c r="V18" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C18,3)&amp;" "&amp;AC18</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
       <c r="W18" s="47" t="s">
@@ -15242,11 +15223,11 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSGAS_05_HP</v>
       </c>
       <c r="B19" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump</v>
       </c>
       <c r="C19" s="67" t="s">
@@ -15314,7 +15295,7 @@
         <v>495</v>
       </c>
       <c r="V19" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C19,3)&amp;" "&amp;AC19</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump</v>
       </c>
       <c r="W19" s="47" t="s">
@@ -15330,11 +15311,11 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSGAS_06_DHP</v>
       </c>
       <c r="B20" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -15402,7 +15383,7 @@
         <v>496</v>
       </c>
       <c r="V20" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C20,3)&amp;" "&amp;AC20</f>
+        <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
       <c r="W20" s="47" t="s">
@@ -15418,11 +15399,11 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSLPG_01_Boi</v>
       </c>
       <c r="B21" s="66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat LPG boiler</v>
       </c>
       <c r="C21" s="66" t="s">
@@ -15506,11 +15487,11 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSLPG_02_DBoi</v>
       </c>
       <c r="B22" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat LPG boiler.HeatHotwater</v>
       </c>
       <c r="C22" s="66" t="s">
@@ -15578,7 +15559,7 @@
         <v>498</v>
       </c>
       <c r="V22" s="47" t="str">
-        <f t="shared" ref="V22" si="2">"New commercial - CS Space Heat "&amp;AC22</f>
+        <f t="shared" ref="V22" si="3">"New commercial - CS Space Heat "&amp;AC22</f>
         <v>New commercial - CS Space Heat LPG boiler.HeatHotwater</v>
       </c>
       <c r="W22" s="47" t="s">
@@ -15594,11 +15575,11 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSLPG_04_DHP</v>
       </c>
       <c r="B23" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
       <c r="C23" s="67" t="s">
@@ -15666,7 +15647,7 @@
         <v>499</v>
       </c>
       <c r="V23" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C23,3)&amp;" "&amp;AC23</f>
+        <f t="shared" ref="V23:V31" si="4">"New commercial - CS Space Heat "&amp;RIGHT(C23,3)&amp;" "&amp;AC23</f>
         <v>New commercial - CS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
       <c r="W23" s="47" t="s">
@@ -15682,11 +15663,11 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSHET_01_DH</v>
       </c>
       <c r="B24" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
       <c r="C24" s="67" t="s">
@@ -15754,7 +15735,7 @@
         <v>500</v>
       </c>
       <c r="V24" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C24,3)&amp;" "&amp;AC24</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
       <c r="W24" s="47" t="s">
@@ -15770,11 +15751,11 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSOIL_01_Boi</v>
       </c>
       <c r="B25" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat OIL Oil boiler</v>
       </c>
       <c r="C25" s="67" t="s">
@@ -15842,7 +15823,7 @@
         <v>501</v>
       </c>
       <c r="V25" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C25,3)&amp;" "&amp;AC25</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat OIL Oil boiler</v>
       </c>
       <c r="W25" s="47" t="s">
@@ -15858,11 +15839,11 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSOIL_02_DBoi</v>
       </c>
       <c r="B26" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
       <c r="C26" s="67" t="s">
@@ -15930,7 +15911,7 @@
         <v>502</v>
       </c>
       <c r="V26" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C26,3)&amp;" "&amp;AC26</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
       <c r="W26" s="47" t="s">
@@ -15946,11 +15927,11 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSOIL_03_DBoi</v>
       </c>
       <c r="B27" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
       <c r="C27" s="67" t="s">
@@ -16018,7 +15999,7 @@
         <v>503</v>
       </c>
       <c r="V27" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C27,3)&amp;" "&amp;AC27</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
       <c r="W27" s="47" t="s">
@@ -16034,11 +16015,11 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSSOL_01_EBkp</v>
       </c>
       <c r="B28" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -16106,7 +16087,7 @@
         <v>504</v>
       </c>
       <c r="V28" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C28,3)&amp;" "&amp;AC28</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
       <c r="W28" s="47" t="s">
@@ -16122,11 +16103,11 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSSOL_02_DBkp</v>
       </c>
       <c r="B29" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
       <c r="C29" s="67" t="s">
@@ -16194,7 +16175,7 @@
         <v>516</v>
       </c>
       <c r="V29" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C29,3)&amp;" "&amp;AC29</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
       <c r="W29" s="47" t="s">
@@ -16210,11 +16191,11 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSSOL_03_GBkp</v>
       </c>
       <c r="B30" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
       <c r="C30" s="67" t="s">
@@ -16282,7 +16263,7 @@
         <v>517</v>
       </c>
       <c r="V30" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C30,3)&amp;" "&amp;AC30</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
       <c r="W30" s="47" t="s">
@@ -16298,11 +16279,11 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHCSBIO_01_DBoi</v>
       </c>
       <c r="B31" s="73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - CS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
       <c r="C31" s="73" t="s">
@@ -16371,7 +16352,7 @@
         <v>505</v>
       </c>
       <c r="V31" s="97" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C31,3)&amp;" "&amp;AC31</f>
+        <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
       <c r="W31" s="97" t="s">
@@ -16610,74 +16591,74 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_01_Rad</v>
       </c>
       <c r="B37" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Electric radiator</v>
       </c>
       <c r="C37" s="64" t="str">
-        <f t="shared" ref="C37:C62" si="3">C6</f>
+        <f t="shared" ref="C37:C62" si="5">C6</f>
         <v>COMELC</v>
       </c>
       <c r="D37" s="78" t="s">
         <v>320</v>
       </c>
       <c r="E37" s="79">
-        <f t="shared" ref="E37:E62" si="4">IF(E6=0,"",E6)</f>
+        <f t="shared" ref="E37:E62" si="6">IF(E6=0,"",E6)</f>
         <v>0.93</v>
       </c>
       <c r="F37" s="79" t="str">
-        <f t="shared" ref="F37:H62" si="5">IF(F6="","",F6)</f>
+        <f t="shared" ref="F37:H62" si="7">IF(F6="","",F6)</f>
         <v/>
       </c>
       <c r="G37" s="79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H37" s="79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I37" s="80">
-        <f t="shared" ref="I37:O43" si="6">I6</f>
+        <f t="shared" ref="I37:O43" si="8">I6</f>
         <v>2019</v>
       </c>
       <c r="J37" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="K37" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L37" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M37" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N37" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O37" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P37" s="84" t="str">
-        <f t="shared" ref="P37:R43" si="7">IF(P6=0,"",P6)</f>
+        <f t="shared" ref="P37:R43" si="9">IF(P6=0,"",P6)</f>
         <v/>
       </c>
       <c r="Q37" s="84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R37" s="84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T37" s="47" t="s">
@@ -16687,7 +16668,7 @@
         <v>460</v>
       </c>
       <c r="V37" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AC6</f>
+        <f t="shared" ref="V37:V62" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AC6</f>
         <v>New commercial - PS Space Heat ELC Electric radiator</v>
       </c>
       <c r="W37" s="47" t="s">
@@ -16701,81 +16682,81 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_02_Boi</v>
       </c>
       <c r="B38" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Electric boiler</v>
       </c>
       <c r="C38" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMELC</v>
       </c>
       <c r="D38" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88349999999999995</v>
       </c>
       <c r="F38" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G38" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H38" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I38" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="J38" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="K38" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L38" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M38" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N38" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O38" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P38" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q38" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R38" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U38" s="158" t="s">
         <v>461</v>
       </c>
       <c r="V38" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C7,3)&amp;" "&amp;AC7</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Electric boiler</v>
       </c>
       <c r="W38" s="47" t="s">
@@ -16789,81 +16770,81 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_03_HP</v>
       </c>
       <c r="B39" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
       <c r="C39" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMELC</v>
       </c>
       <c r="D39" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E39" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
       <c r="F39" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G39" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H39" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I39" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="J39" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="K39" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="L39" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M39" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N39" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O39" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P39" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.69696969696969702</v>
       </c>
       <c r="Q39" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R39" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U39" s="158" t="s">
         <v>468</v>
       </c>
       <c r="V39" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C8,3)&amp;" "&amp;AC8</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
       <c r="W39" s="47" t="s">
@@ -16877,81 +16858,81 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_04_DHP</v>
       </c>
       <c r="B40" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C40" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMELC</v>
       </c>
       <c r="D40" s="86" t="s">
         <v>326</v>
       </c>
       <c r="E40" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F40" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G40" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H40" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I40" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="J40" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="K40" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="L40" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M40" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N40" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O40" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P40" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.69696969696969702</v>
       </c>
       <c r="Q40" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R40" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U40" s="158" t="s">
         <v>469</v>
       </c>
       <c r="V40" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C9,3)&amp;" "&amp;AC9</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="W40" s="47" t="s">
@@ -16965,81 +16946,81 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_05_HP</v>
       </c>
       <c r="B41" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
       <c r="C41" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMELC</v>
       </c>
       <c r="D41" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
       <c r="F41" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G41" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H41" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I41" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="J41" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="K41" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="L41" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M41" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N41" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O41" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P41" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79166666666666696</v>
       </c>
       <c r="Q41" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R41" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U41" s="158" t="s">
         <v>470</v>
       </c>
       <c r="V41" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C10,3)&amp;" "&amp;AC10</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
       <c r="W41" s="47" t="s">
@@ -17053,81 +17034,81 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_06_DHP</v>
       </c>
       <c r="B42" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C42" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMELC</v>
       </c>
       <c r="D42" s="86" t="s">
         <v>326</v>
       </c>
       <c r="E42" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F42" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G42" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H42" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I42" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="J42" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="K42" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="L42" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M42" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N42" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O42" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P42" s="90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.82758620689655205</v>
       </c>
       <c r="Q42" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R42" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U42" s="158" t="s">
         <v>471</v>
       </c>
       <c r="V42" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C11,3)&amp;" "&amp;AC11</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="W42" s="47" t="s">
@@ -17141,62 +17122,62 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHPSELC_07_HP</v>
       </c>
       <c r="B43" s="67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
       <c r="C43" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMELC</v>
       </c>
       <c r="D43" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E43" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
       <c r="F43" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G43" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H43" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I43" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2019</v>
       </c>
       <c r="J43" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="K43" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="L43" s="89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="M43" s="88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N43" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O43" s="87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="P43" s="90">
@@ -17204,18 +17185,18 @@
         <v>0.8</v>
       </c>
       <c r="Q43" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R43" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U43" s="158" t="s">
         <v>472</v>
       </c>
       <c r="V43" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C12,3)&amp;" "&amp;AC12</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
       <c r="W43" s="47" t="s">
@@ -17229,62 +17210,62 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="86" t="str">
-        <f t="shared" ref="A44:A62" si="8">U44</f>
+        <f t="shared" ref="A44:A62" si="11">U44</f>
         <v>CHPSELC_08_DHP</v>
       </c>
       <c r="B44" s="67" t="str">
-        <f t="shared" ref="B44:B62" si="9">V44</f>
+        <f t="shared" ref="B44:B62" si="12">V44</f>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C44" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMELC</v>
       </c>
       <c r="D44" s="86" t="s">
         <v>326</v>
       </c>
       <c r="E44" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F44" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G44" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H44" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I44" s="88">
-        <f t="shared" ref="I44:O44" si="10">I13</f>
+        <f t="shared" ref="I44:O44" si="13">I13</f>
         <v>2019</v>
       </c>
       <c r="J44" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>700</v>
       </c>
       <c r="K44" s="82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="L44" s="89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="M44" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="N44" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O44" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="P44" s="90">
@@ -17292,18 +17273,18 @@
         <v>0.8</v>
       </c>
       <c r="Q44" s="90" t="str">
-        <f t="shared" ref="Q44:R44" si="11">IF(Q13=0,"",Q13)</f>
+        <f t="shared" ref="Q44:R44" si="14">IF(Q13=0,"",Q13)</f>
         <v/>
       </c>
       <c r="R44" s="90" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="U44" s="158" t="s">
         <v>473</v>
       </c>
       <c r="V44" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C13,3)&amp;" "&amp;AC13</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="W44" s="47" t="s">
@@ -17317,81 +17298,81 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>*CHPSFCH_01</v>
       </c>
       <c r="B45" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat HET FC output to Heat demand</v>
       </c>
       <c r="C45" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMHET</v>
       </c>
       <c r="D45" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E45" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
       <c r="F45" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G45" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H45" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I45" s="88">
-        <f t="shared" ref="I45:O45" si="12">I14</f>
+        <f t="shared" ref="I45:O45" si="15">I14</f>
         <v>2019</v>
       </c>
       <c r="J45" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="K45" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L45" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.01</v>
       </c>
       <c r="M45" s="88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="N45" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O45" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.15</v>
       </c>
       <c r="P45" s="90" t="str">
-        <f t="shared" ref="P45:R45" si="13">IF(P14=0,"",P14)</f>
+        <f t="shared" ref="P45:R45" si="16">IF(P14=0,"",P14)</f>
         <v/>
       </c>
       <c r="Q45" s="90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R45" s="90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U45" s="158" t="s">
         <v>425</v>
       </c>
       <c r="V45" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C14,3)&amp;" "&amp;AC14</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat HET FC output to Heat demand</v>
       </c>
       <c r="W45" s="47" t="s">
@@ -17405,81 +17386,81 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSGAS_01_Boi</v>
       </c>
       <c r="B46" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler</v>
       </c>
       <c r="C46" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMGAS</v>
       </c>
       <c r="D46" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.81840000000000002</v>
       </c>
       <c r="F46" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G46" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H46" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I46" s="88">
-        <f t="shared" ref="I46:O46" si="14">I15</f>
+        <f t="shared" ref="I46:O46" si="17">I15</f>
         <v>2019</v>
       </c>
       <c r="J46" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="K46" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.3</v>
       </c>
       <c r="L46" s="89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.01</v>
       </c>
       <c r="M46" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="N46" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O46" s="87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
       <c r="P46" s="90" t="str">
-        <f t="shared" ref="P46:R46" si="15">IF(P15=0,"",P15)</f>
+        <f t="shared" ref="P46:R46" si="18">IF(P15=0,"",P15)</f>
         <v/>
       </c>
       <c r="Q46" s="90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="R46" s="90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U46" s="158" t="s">
         <v>462</v>
       </c>
       <c r="V46" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C15,3)&amp;" "&amp;AC15</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler</v>
       </c>
       <c r="W46" s="47" t="s">
@@ -17493,81 +17474,81 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSGAS_02_DBoi</v>
       </c>
       <c r="B47" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
       <c r="C47" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMGAS</v>
       </c>
       <c r="D47" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E47" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F47" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88349999999999995</v>
       </c>
       <c r="G47" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59670000000000001</v>
       </c>
       <c r="H47" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I47" s="88">
-        <f t="shared" ref="I47:O47" si="16">I16</f>
+        <f t="shared" ref="I47:O47" si="19">I16</f>
         <v>2019</v>
       </c>
       <c r="J47" s="82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>119.9</v>
       </c>
       <c r="K47" s="82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="L47" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="M47" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="N47" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O47" s="87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.16</v>
       </c>
       <c r="P47" s="90" t="str">
-        <f t="shared" ref="P47:R47" si="17">IF(P16=0,"",P16)</f>
+        <f t="shared" ref="P47:R47" si="20">IF(P16=0,"",P16)</f>
         <v/>
       </c>
       <c r="Q47" s="90" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="R47" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
       <c r="U47" s="158" t="s">
         <v>463</v>
       </c>
       <c r="V47" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C16,3)&amp;" "&amp;AC16</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
       <c r="W47" s="47" t="s">
@@ -17581,81 +17562,81 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSGAS_03_Boi</v>
       </c>
       <c r="B48" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler condensing</v>
       </c>
       <c r="C48" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMGAS</v>
       </c>
       <c r="D48" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E48" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0229999999999999</v>
       </c>
       <c r="F48" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G48" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H48" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I48" s="88">
-        <f t="shared" ref="I48:O48" si="18">I17</f>
+        <f t="shared" ref="I48:O48" si="21">I17</f>
         <v>2019</v>
       </c>
       <c r="J48" s="82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="K48" s="82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7.3</v>
       </c>
       <c r="L48" s="89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.01</v>
       </c>
       <c r="M48" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="N48" s="68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O48" s="87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.15</v>
       </c>
       <c r="P48" s="90" t="str">
-        <f t="shared" ref="P48:R48" si="19">IF(P17=0,"",P17)</f>
+        <f t="shared" ref="P48:R48" si="22">IF(P17=0,"",P17)</f>
         <v/>
       </c>
       <c r="Q48" s="90" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R48" s="90" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U48" s="158" t="s">
         <v>464</v>
       </c>
       <c r="V48" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C17,3)&amp;" "&amp;AC17</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler condensing</v>
       </c>
       <c r="W48" s="47" t="s">
@@ -17669,81 +17650,81 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSGAS_04_DBoi</v>
       </c>
       <c r="B49" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
       <c r="C49" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMGAS</v>
       </c>
       <c r="D49" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E49" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F49" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99509999999999998</v>
       </c>
       <c r="G49" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.50467289719626196</v>
       </c>
       <c r="H49" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I49" s="88">
-        <f t="shared" ref="I49:O49" si="20">I18</f>
+        <f t="shared" ref="I49:O49" si="23">I18</f>
         <v>2019</v>
       </c>
       <c r="J49" s="82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>281.60000000000002</v>
       </c>
       <c r="K49" s="82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.3</v>
       </c>
       <c r="L49" s="89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
       <c r="M49" s="88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="N49" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O49" s="87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.16</v>
       </c>
       <c r="P49" s="90" t="str">
-        <f t="shared" ref="P49:R49" si="21">IF(P18=0,"",P18)</f>
+        <f t="shared" ref="P49:R49" si="24">IF(P18=0,"",P18)</f>
         <v/>
       </c>
       <c r="Q49" s="90" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R49" s="90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.6</v>
       </c>
       <c r="U49" s="158" t="s">
         <v>465</v>
       </c>
       <c r="V49" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C18,3)&amp;" "&amp;AC18</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
       <c r="W49" s="47" t="s">
@@ -17757,81 +17738,81 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSGAS_05_HP</v>
       </c>
       <c r="B50" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat GAS Natural gas air heat pump</v>
       </c>
       <c r="C50" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMGAS</v>
       </c>
       <c r="D50" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E50" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93</v>
       </c>
       <c r="F50" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G50" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H50" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I50" s="88">
-        <f t="shared" ref="I50:O50" si="22">I19</f>
+        <f t="shared" ref="I50:O50" si="25">I19</f>
         <v>2019</v>
       </c>
       <c r="J50" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>509</v>
       </c>
       <c r="K50" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="L50" s="89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.01</v>
       </c>
       <c r="M50" s="88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="N50" s="68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O50" s="87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.15</v>
       </c>
       <c r="P50" s="90">
-        <f t="shared" ref="P50:R50" si="23">IF(P19=0,"",P19)</f>
+        <f t="shared" ref="P50:R50" si="26">IF(P19=0,"",P19)</f>
         <v>0.42857142857142899</v>
       </c>
       <c r="Q50" s="90" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R50" s="90" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U50" s="158" t="s">
         <v>466</v>
       </c>
       <c r="V50" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C19,3)&amp;" "&amp;AC19</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas air heat pump</v>
       </c>
       <c r="W50" s="47" t="s">
@@ -17845,81 +17826,81 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSGAS_06_DHP</v>
       </c>
       <c r="B51" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
       <c r="C51" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMGAS</v>
       </c>
       <c r="D51" s="86" t="s">
         <v>326</v>
       </c>
       <c r="E51" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F51" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G51" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H51" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I51" s="88">
-        <f t="shared" ref="I51:O51" si="24">I20</f>
+        <f t="shared" ref="I51:O51" si="27">I20</f>
         <v>2019</v>
       </c>
       <c r="J51" s="82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>509</v>
       </c>
       <c r="K51" s="82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="L51" s="89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="M51" s="88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="N51" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O51" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="P51" s="90">
-        <f t="shared" ref="P51:R51" si="25">IF(P20=0,"",P20)</f>
+        <f t="shared" ref="P51:R51" si="28">IF(P20=0,"",P20)</f>
         <v>0.42857142857142899</v>
       </c>
       <c r="Q51" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R51" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U51" s="158" t="s">
         <v>467</v>
       </c>
       <c r="V51" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C20,3)&amp;" "&amp;AC20</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
       <c r="W51" s="47" t="s">
@@ -17933,81 +17914,81 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSLPG_01_Boi</v>
       </c>
       <c r="B52" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat LPG LPG boiler</v>
       </c>
       <c r="C52" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMLPG</v>
       </c>
       <c r="D52" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E52" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.79049999999999998</v>
       </c>
       <c r="F52" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G52" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H52" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I52" s="88">
-        <f t="shared" ref="I52:O52" si="26">I21</f>
+        <f t="shared" ref="I52:O52" si="29">I21</f>
         <v>2019</v>
       </c>
       <c r="J52" s="82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>147</v>
       </c>
       <c r="K52" s="82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8.5</v>
       </c>
       <c r="L52" s="89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.01</v>
       </c>
       <c r="M52" s="88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="N52" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O52" s="87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.15</v>
       </c>
       <c r="P52" s="90" t="str">
-        <f t="shared" ref="P52:R52" si="27">IF(P21=0,"",P21)</f>
+        <f t="shared" ref="P52:R52" si="30">IF(P21=0,"",P21)</f>
         <v/>
       </c>
       <c r="Q52" s="90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="R52" s="90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="U52" s="158" t="s">
         <v>474</v>
       </c>
       <c r="V52" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C21,3)&amp;" "&amp;AC21</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG boiler</v>
       </c>
       <c r="W52" s="47" t="s">
@@ -18020,81 +18001,81 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSLPG_02_DBoi</v>
       </c>
       <c r="B53" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat LPG LPG boiler.HeatHotwater</v>
       </c>
       <c r="C53" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMLPG</v>
       </c>
       <c r="D53" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E53" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F53" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.68262</v>
       </c>
       <c r="G53" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73569482288828403</v>
       </c>
       <c r="H53" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I53" s="88">
-        <f t="shared" ref="I53:O53" si="28">I22</f>
+        <f t="shared" ref="I53:O53" si="31">I22</f>
         <v>2019</v>
       </c>
       <c r="J53" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>161.69999999999999</v>
       </c>
       <c r="K53" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.32</v>
       </c>
       <c r="L53" s="89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.01</v>
       </c>
       <c r="M53" s="88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="N53" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O53" s="87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.16</v>
       </c>
       <c r="P53" s="90" t="str">
-        <f t="shared" ref="P53:R53" si="29">IF(P22=0,"",P22)</f>
+        <f t="shared" ref="P53:R53" si="32">IF(P22=0,"",P22)</f>
         <v/>
       </c>
       <c r="Q53" s="90" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R53" s="90">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
       <c r="U53" s="158" t="s">
         <v>475</v>
       </c>
       <c r="V53" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C22,3)&amp;" "&amp;AC22</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG boiler.HeatHotwater</v>
       </c>
       <c r="W53" s="47" t="s">
@@ -18107,81 +18088,81 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSLPG_04_DHP</v>
       </c>
       <c r="B54" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
       <c r="C54" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMAMB, COMLPG</v>
       </c>
       <c r="D54" s="86" t="s">
         <v>326</v>
       </c>
       <c r="E54" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F54" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G54" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H54" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I54" s="88">
-        <f t="shared" ref="I54:O54" si="30">I23</f>
+        <f t="shared" ref="I54:O54" si="33">I23</f>
         <v>2019</v>
       </c>
       <c r="J54" s="82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>600</v>
       </c>
       <c r="K54" s="82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7.84</v>
       </c>
       <c r="L54" s="89">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.01</v>
       </c>
       <c r="M54" s="88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="N54" s="68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O54" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.15</v>
       </c>
       <c r="P54" s="90">
-        <f t="shared" ref="P54:R54" si="31">IF(P23=0,"",P23)</f>
+        <f t="shared" ref="P54:R54" si="34">IF(P23=0,"",P23)</f>
         <v>0.5</v>
       </c>
       <c r="Q54" s="90" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R54" s="90" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U54" s="158" t="s">
         <v>476</v>
       </c>
       <c r="V54" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C23,3)&amp;" "&amp;AC23</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
       <c r="W54" s="47" t="s">
@@ -18194,81 +18175,81 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSHET_01_DH</v>
       </c>
       <c r="B55" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
       <c r="C55" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMHET</v>
       </c>
       <c r="D55" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E55" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F55" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88349999999999995</v>
       </c>
       <c r="G55" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
       <c r="H55" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I55" s="88">
-        <f t="shared" ref="I55:O55" si="32">I24</f>
+        <f t="shared" ref="I55:O55" si="35">I24</f>
         <v>2019</v>
       </c>
       <c r="J55" s="82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>70</v>
       </c>
       <c r="K55" s="82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L55" s="89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.01</v>
       </c>
       <c r="M55" s="88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>20</v>
       </c>
       <c r="N55" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O55" s="87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.16</v>
       </c>
       <c r="P55" s="90" t="str">
-        <f t="shared" ref="P55:R55" si="33">IF(P24=0,"",P24)</f>
+        <f t="shared" ref="P55:R55" si="36">IF(P24=0,"",P24)</f>
         <v/>
       </c>
       <c r="Q55" s="90" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="R55" s="90">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
       <c r="U55" s="158" t="s">
         <v>477</v>
       </c>
       <c r="V55" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C24,3)&amp;" "&amp;AC24</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
       <c r="W55" s="47" t="s">
@@ -18281,81 +18262,81 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSOIL_01_Boi</v>
       </c>
       <c r="B56" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat OIL Oil boiler</v>
       </c>
       <c r="C56" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMOIL</v>
       </c>
       <c r="D56" s="86" t="s">
         <v>320</v>
       </c>
       <c r="E56" s="87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.67889999999999995</v>
       </c>
       <c r="F56" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G56" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H56" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I56" s="88">
-        <f t="shared" ref="I56:O56" si="34">I25</f>
+        <f t="shared" ref="I56:O56" si="37">I25</f>
         <v>2019</v>
       </c>
       <c r="J56" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>62.45</v>
       </c>
       <c r="K56" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.25</v>
       </c>
       <c r="L56" s="89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.01</v>
       </c>
       <c r="M56" s="88">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="N56" s="68">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O56" s="87">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
       <c r="P56" s="90" t="str">
-        <f t="shared" ref="P56:R56" si="35">IF(P25=0,"",P25)</f>
+        <f t="shared" ref="P56:R56" si="38">IF(P25=0,"",P25)</f>
         <v/>
       </c>
       <c r="Q56" s="90" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R56" s="90" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U56" s="158" t="s">
         <v>478</v>
       </c>
       <c r="V56" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C25,3)&amp;" "&amp;AC25</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler</v>
       </c>
       <c r="W56" s="47" t="s">
@@ -18368,81 +18349,81 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSOIL_02_DBoi</v>
       </c>
       <c r="B57" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
       <c r="C57" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMOIL</v>
       </c>
       <c r="D57" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E57" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F57" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79049999999999998</v>
       </c>
       <c r="G57" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59670000000000001</v>
       </c>
       <c r="H57" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I57" s="88">
-        <f t="shared" ref="I57:O57" si="36">I26</f>
+        <f t="shared" ref="I57:O57" si="39">I26</f>
         <v>2019</v>
       </c>
       <c r="J57" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>68.694999999999993</v>
       </c>
       <c r="K57" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="L57" s="89">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.01</v>
       </c>
       <c r="M57" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20</v>
       </c>
       <c r="N57" s="68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O57" s="87">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.16</v>
       </c>
       <c r="P57" s="90" t="str">
-        <f t="shared" ref="P57:R57" si="37">IF(P26=0,"",P26)</f>
+        <f t="shared" ref="P57:R57" si="40">IF(P26=0,"",P26)</f>
         <v/>
       </c>
       <c r="Q57" s="90" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R57" s="90">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.6</v>
       </c>
       <c r="U57" s="158" t="s">
         <v>479</v>
       </c>
       <c r="V57" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C26,3)&amp;" "&amp;AC26</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
       <c r="W57" s="47" t="s">
@@ -18455,81 +18436,81 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSOIL_03_DBoi</v>
       </c>
       <c r="B58" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
       <c r="C58" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMOIL</v>
       </c>
       <c r="D58" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E58" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F58" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G58" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="H58" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I58" s="88">
-        <f t="shared" ref="I58:O58" si="38">I27</f>
+        <f t="shared" ref="I58:O58" si="41">I27</f>
         <v>2019</v>
       </c>
       <c r="J58" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>279</v>
       </c>
       <c r="K58" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="L58" s="89">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.01</v>
       </c>
       <c r="M58" s="88">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="N58" s="68">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O58" s="87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.16</v>
       </c>
       <c r="P58" s="90" t="str">
-        <f t="shared" ref="P58:R58" si="39">IF(P27=0,"",P27)</f>
+        <f t="shared" ref="P58:R58" si="42">IF(P27=0,"",P27)</f>
         <v/>
       </c>
       <c r="Q58" s="90" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="R58" s="90">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.6</v>
       </c>
       <c r="U58" s="158" t="s">
         <v>480</v>
       </c>
       <c r="V58" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C27,3)&amp;" "&amp;AC27</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
       <c r="W58" s="47" t="s">
@@ -18542,81 +18523,81 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSSOL_01_EBkp</v>
       </c>
       <c r="B59" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
       <c r="C59" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMELC, COMSOL</v>
       </c>
       <c r="D59" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E59" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F59" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76259999999999994</v>
       </c>
       <c r="G59" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.965853658536588</v>
       </c>
       <c r="H59" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I59" s="88">
-        <f t="shared" ref="I59:O59" si="40">I28</f>
+        <f t="shared" ref="I59:O59" si="43">I28</f>
         <v>2019</v>
       </c>
       <c r="J59" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>964.81651376146999</v>
       </c>
       <c r="K59" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>185</v>
       </c>
       <c r="L59" s="89">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.01</v>
       </c>
       <c r="M59" s="88">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="N59" s="68">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O59" s="87">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.16</v>
       </c>
       <c r="P59" s="90" t="str">
-        <f t="shared" ref="P59:R59" si="41">IF(P28=0,"",P28)</f>
+        <f t="shared" ref="P59:R59" si="44">IF(P28=0,"",P28)</f>
         <v/>
       </c>
       <c r="Q59" s="90">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.68</v>
       </c>
       <c r="R59" s="90">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.6</v>
       </c>
       <c r="U59" s="158" t="s">
         <v>481</v>
       </c>
       <c r="V59" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C28,3)&amp;" "&amp;AC28</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
       <c r="W59" s="47" t="s">
@@ -18629,81 +18610,81 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSSOL_02_DBkp</v>
       </c>
       <c r="B60" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
       <c r="C60" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMOIL, COMSOL</v>
       </c>
       <c r="D60" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E60" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F60" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76259999999999994</v>
       </c>
       <c r="G60" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59268292682926904</v>
       </c>
       <c r="H60" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I60" s="88">
-        <f t="shared" ref="I60:O60" si="42">I29</f>
+        <f t="shared" ref="I60:O60" si="45">I29</f>
         <v>2019</v>
       </c>
       <c r="J60" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>964.81651376146999</v>
       </c>
       <c r="K60" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>185</v>
       </c>
       <c r="L60" s="89">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.01</v>
       </c>
       <c r="M60" s="88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>20</v>
       </c>
       <c r="N60" s="68">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O60" s="87">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.16</v>
       </c>
       <c r="P60" s="90" t="str">
-        <f t="shared" ref="P60:R60" si="43">IF(P29=0,"",P29)</f>
+        <f t="shared" ref="P60:R60" si="46">IF(P29=0,"",P29)</f>
         <v/>
       </c>
       <c r="Q60" s="90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.71</v>
       </c>
       <c r="R60" s="90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
       <c r="U60" s="158" t="s">
         <v>518</v>
       </c>
       <c r="V60" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C29,3)&amp;" "&amp;AC29</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
       <c r="W60" s="47" t="s">
@@ -18716,81 +18697,81 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSSOL_03_GBkp</v>
       </c>
       <c r="B61" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
       <c r="C61" s="67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMGAS, COMSOL</v>
       </c>
       <c r="D61" s="86" t="s">
         <v>327</v>
       </c>
       <c r="E61" s="87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F61" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79049999999999998</v>
       </c>
       <c r="G61" s="87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59268292682926904</v>
       </c>
       <c r="H61" s="87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I61" s="88">
-        <f t="shared" ref="I61:O61" si="44">I30</f>
+        <f t="shared" ref="I61:O61" si="47">I30</f>
         <v>2019</v>
       </c>
       <c r="J61" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>964.81651376146999</v>
       </c>
       <c r="K61" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>185</v>
       </c>
       <c r="L61" s="89">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.01</v>
       </c>
       <c r="M61" s="88">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
       <c r="N61" s="68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O61" s="87">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.16</v>
       </c>
       <c r="P61" s="90" t="str">
-        <f t="shared" ref="P61:R61" si="45">IF(P30=0,"",P30)</f>
+        <f t="shared" ref="P61:R61" si="48">IF(P30=0,"",P30)</f>
         <v/>
       </c>
       <c r="Q61" s="90">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.68</v>
       </c>
       <c r="R61" s="90">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.6</v>
       </c>
       <c r="U61" s="158" t="s">
         <v>519</v>
       </c>
       <c r="V61" s="47" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C30,3)&amp;" "&amp;AC30</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
       <c r="W61" s="47" t="s">
@@ -18803,74 +18784,74 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>CHPSBIO_01_DBoi</v>
       </c>
       <c r="B62" s="73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>New commercial - PS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
       <c r="C62" s="73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>COMBIO</v>
       </c>
       <c r="D62" s="91" t="s">
         <v>327</v>
       </c>
       <c r="E62" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F62" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79049999999999998</v>
       </c>
       <c r="G62" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37619999999999998</v>
       </c>
       <c r="H62" s="92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I62" s="93">
-        <f t="shared" ref="I62:O62" si="46">I31</f>
+        <f t="shared" ref="I62:O62" si="49">I31</f>
         <v>2019</v>
       </c>
       <c r="J62" s="94">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>300</v>
       </c>
       <c r="K62" s="94">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="L62" s="95">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.01</v>
       </c>
       <c r="M62" s="93">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>20</v>
       </c>
       <c r="N62" s="74">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>31.536000000000001</v>
       </c>
       <c r="O62" s="92">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.16</v>
       </c>
       <c r="P62" s="96" t="str">
-        <f t="shared" ref="P62:R62" si="47">IF(P31=0,"",P31)</f>
+        <f t="shared" ref="P62:R62" si="50">IF(P31=0,"",P31)</f>
         <v/>
       </c>
       <c r="Q62" s="96" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="R62" s="96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.6</v>
       </c>
       <c r="T62" s="97"/>
@@ -18878,7 +18859,7 @@
         <v>482</v>
       </c>
       <c r="V62" s="97" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C31,3)&amp;" "&amp;AC31</f>
+        <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
       <c r="W62" s="97" t="s">
@@ -19065,11 +19046,11 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="217" t="str">
-        <f t="shared" ref="A69:A72" si="48">U69</f>
+        <f t="shared" ref="A69:A72" si="51">U69</f>
         <v>CHCSGH2_01_Boi</v>
       </c>
       <c r="B69" s="218" t="str">
-        <f t="shared" ref="B69:B72" si="49">V69</f>
+        <f t="shared" ref="B69:B72" si="52">V69</f>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
       <c r="C69" s="219" t="s">
@@ -19098,9 +19079,8 @@
         <v>0.19996427044383505</v>
       </c>
       <c r="L69" s="224"/>
-      <c r="M69" s="221" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="M69" s="242">
+        <v>20</v>
       </c>
       <c r="N69" s="225">
         <f>G90</f>
@@ -19137,11 +19117,11 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="86" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>CHCSGH2_02_DBoi</v>
       </c>
       <c r="B70" s="67" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler.HeatHotwater</v>
       </c>
       <c r="C70" s="159" t="s">
@@ -19173,9 +19153,9 @@
         <v>0.19996427044383505</v>
       </c>
       <c r="L70" s="89"/>
-      <c r="M70" s="88" t="e">
+      <c r="M70" s="238">
         <f>M69</f>
-        <v>#REF!</v>
+        <v>20</v>
       </c>
       <c r="N70" s="68">
         <f>N69</f>
@@ -19219,11 +19199,11 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="86" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>CHCSGH2_03_HP</v>
       </c>
       <c r="B71" s="67" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen air heat pump</v>
       </c>
       <c r="C71" s="159" t="s">
@@ -19252,9 +19232,8 @@
         <v>0.32856874241555639</v>
       </c>
       <c r="L71" s="89"/>
-      <c r="M71" s="88" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="M71" s="238">
+        <v>20</v>
       </c>
       <c r="N71" s="68">
         <f>G96</f>
@@ -19298,11 +19277,11 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="91" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>CHCSGH2_04_DHP</v>
       </c>
       <c r="B72" s="73" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen heat pump.HeatCool</v>
       </c>
       <c r="C72" s="214" t="s">
@@ -19334,9 +19313,9 @@
         <v>0.32856874241555639</v>
       </c>
       <c r="L72" s="95"/>
-      <c r="M72" s="93" t="e">
+      <c r="M72" s="243">
         <f>M71</f>
-        <v>#REF!</v>
+        <v>20</v>
       </c>
       <c r="N72" s="74">
         <f>N71</f>
@@ -19598,73 +19577,73 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="217" t="str">
-        <f t="shared" ref="A77:A80" si="50">U77</f>
+        <f t="shared" ref="A77:A80" si="53">U77</f>
         <v>CHPSGH2_01_Boi</v>
       </c>
       <c r="B77" s="218" t="str">
-        <f t="shared" ref="B77:B80" si="51">V77</f>
+        <f t="shared" ref="B77:B80" si="54">V77</f>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
       <c r="C77" s="219" t="s">
         <v>621</v>
       </c>
-      <c r="D77" s="217" t="s">
-        <v>319</v>
+      <c r="D77" s="177" t="s">
+        <v>320</v>
       </c>
       <c r="E77" s="220">
         <f>IF(E69=0,"",E69)</f>
         <v>0.9</v>
       </c>
       <c r="F77" s="220" t="str">
-        <f t="shared" ref="F77:R77" si="52">IF(F69=0,"",F69)</f>
+        <f t="shared" ref="F77:R77" si="55">IF(F69=0,"",F69)</f>
         <v/>
       </c>
       <c r="G77" s="220" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="H77" s="220" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="I77" s="221">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2030</v>
       </c>
       <c r="J77" s="222">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1.9996427044383505</v>
       </c>
       <c r="K77" s="223">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.19996427044383505</v>
       </c>
       <c r="L77" s="224" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="M77" s="221" t="e">
-        <f t="shared" si="52"/>
-        <v>#REF!</v>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="M77" s="242">
+        <f t="shared" si="55"/>
+        <v>20</v>
       </c>
       <c r="N77" s="225">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="O77" s="220">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.15</v>
       </c>
       <c r="P77" s="226" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Q77" s="226" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R77" s="226" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="T77" s="228" t="s">
@@ -19692,73 +19671,73 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="86" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>CHPSGH2_02_DBoi</v>
       </c>
       <c r="B78" s="67" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler.HeatHotwater</v>
       </c>
       <c r="C78" s="159" t="s">
         <v>621</v>
       </c>
-      <c r="D78" s="86" t="s">
-        <v>325</v>
+      <c r="D78" s="244" t="s">
+        <v>327</v>
       </c>
       <c r="E78" s="87" t="str">
-        <f t="shared" ref="E78:R78" si="53">IF(E70=0,"",E70)</f>
+        <f t="shared" ref="E78:R78" si="56">IF(E70=0,"",E70)</f>
         <v/>
       </c>
       <c r="F78" s="87">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.9</v>
       </c>
       <c r="G78" s="213">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.4564421741298722</v>
       </c>
       <c r="H78" s="87" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="I78" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>2030</v>
       </c>
       <c r="J78" s="82">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1.9996427044383505</v>
       </c>
       <c r="K78" s="82">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.19996427044383505</v>
       </c>
       <c r="L78" s="89" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="M78" s="88" t="e">
-        <f t="shared" si="53"/>
-        <v>#REF!</v>
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="M78" s="238">
+        <f t="shared" si="56"/>
+        <v>20</v>
       </c>
       <c r="N78" s="68">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="O78" s="87">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.15</v>
       </c>
       <c r="P78" s="90" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="Q78" s="90" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="R78" s="90">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
       <c r="T78" s="85"/>
@@ -19784,73 +19763,73 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="86" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>CHPSGH2_03_HP</v>
       </c>
       <c r="B79" s="67" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen air heat pump</v>
       </c>
       <c r="C79" s="159" t="s">
         <v>708</v>
       </c>
-      <c r="D79" s="86" t="s">
-        <v>319</v>
+      <c r="D79" s="244" t="s">
+        <v>320</v>
       </c>
       <c r="E79" s="87">
-        <f t="shared" ref="E79:R79" si="54">IF(E71=0,"",E71)</f>
+        <f t="shared" ref="E79:R79" si="57">IF(E71=0,"",E71)</f>
         <v>0.93</v>
       </c>
       <c r="F79" s="87" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="G79" s="87" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="H79" s="87" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="I79" s="88">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>2030</v>
       </c>
       <c r="J79" s="82">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>5.4761457069259398</v>
       </c>
       <c r="K79" s="215">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.32856874241555639</v>
       </c>
       <c r="L79" s="89" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="M79" s="88" t="e">
-        <f t="shared" si="54"/>
-        <v>#REF!</v>
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="M79" s="238">
+        <f t="shared" si="57"/>
+        <v>20</v>
       </c>
       <c r="N79" s="68">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="O79" s="87">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.15</v>
       </c>
       <c r="P79" s="90">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.42857142857142899</v>
       </c>
       <c r="Q79" s="90" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="R79" s="90" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="T79" s="85"/>
@@ -19876,73 +19855,73 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="91" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>CHPSGH2_04_DHP</v>
       </c>
       <c r="B80" s="73" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen heat pump.HeatCool</v>
       </c>
       <c r="C80" s="214" t="s">
         <v>708</v>
       </c>
-      <c r="D80" s="91" t="s">
-        <v>324</v>
+      <c r="D80" s="245" t="s">
+        <v>326</v>
       </c>
       <c r="E80" s="92" t="str">
-        <f t="shared" ref="E80:R80" si="55">IF(E72=0,"",E72)</f>
+        <f t="shared" ref="E80:R80" si="58">IF(E72=0,"",E72)</f>
         <v/>
       </c>
       <c r="F80" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.93</v>
       </c>
       <c r="G80" s="92" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="H80" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="I80" s="93">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2030</v>
       </c>
       <c r="J80" s="94">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>5.4761457069259398</v>
       </c>
       <c r="K80" s="94">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.32856874241555639</v>
       </c>
       <c r="L80" s="95" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="M80" s="93" t="e">
-        <f t="shared" si="55"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="M80" s="243">
+        <f t="shared" si="58"/>
+        <v>20</v>
       </c>
       <c r="N80" s="74">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="O80" s="92">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.15</v>
       </c>
       <c r="P80" s="96">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.42857142857142899</v>
       </c>
       <c r="Q80" s="96" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="R80" s="96" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="T80" s="97"/>
@@ -20747,8 +20726,8 @@
   </sheetPr>
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30184,9 +30163,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30336,19 +30318,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30372,9 +30350,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>